--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_809.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_809.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d1963681-Reviews-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>146</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_809.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_809.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2075 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r582014761-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>1963681</t>
+  </si>
+  <si>
+    <t>582014761</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Love This Place</t>
+  </si>
+  <si>
+    <t>It’s so nice to have a place to stay that feels like home when we visit our son at UCLA.  And always such interesting people at breakfast!  Priced a little high, but worth it for convenience, peace of mind and that breakfast!  Great food, kind and helpful staff...and great restaurants nearby.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>It’s so nice to have a place to stay that feels like home when we visit our son at UCLA.  And always such interesting people at breakfast!  Priced a little high, but worth it for convenience, peace of mind and that breakfast!  Great food, kind and helpful staff...and great restaurants nearby.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r577525362-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577525362</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Visiting student at UCLA</t>
+  </si>
+  <si>
+    <t>UCLA guest house is a friendly and homely place. It is walking distance within campus and convenient. There is complementary breakfast while tea and coffee is available free 24hrs. Lunch and dinner is not available but there is a student's cafe/food canteen called Lu Valle just across the road in campus. You will have to drive out to Westwood village if you wanted a proper sit down dinner placeWe had a great time and would definitely go backMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>UCLA guest house is a friendly and homely place. It is walking distance within campus and convenient. There is complementary breakfast while tea and coffee is available free 24hrs. Lunch and dinner is not available but there is a student's cafe/food canteen called Lu Valle just across the road in campus. You will have to drive out to Westwood village if you wanted a proper sit down dinner placeWe had a great time and would definitely go backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r574260593-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>574260593</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Excelllent, cozy guest house right on the UCLA campus</t>
+  </si>
+  <si>
+    <t>We just spent the weekend visiting UCLA for Bruin Day. It was perfect as it is situated right on the campus. As soon as you drive up it is very warm, cozy and welcoming. We did not hire a car as everything was very easy to walk to, there is the option for parking though for $12 a night. We did use Lyft a couple of times and they pick you up and drop you off right where the guest house is. The room was very spacious, clean and bright and the staff all lovely and willing to help. The complimentary breakfast was a great start to a busy day of walking around campus. Lots of choice and in a lovely relaxing, cozy room. We were also able to store our bags after check out as our flight was not until later in the day. It was a fabulous stay and I would definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>We just spent the weekend visiting UCLA for Bruin Day. It was perfect as it is situated right on the campus. As soon as you drive up it is very warm, cozy and welcoming. We did not hire a car as everything was very easy to walk to, there is the option for parking though for $12 a night. We did use Lyft a couple of times and they pick you up and drop you off right where the guest house is. The room was very spacious, clean and bright and the staff all lovely and willing to help. The complimentary breakfast was a great start to a busy day of walking around campus. Lots of choice and in a lovely relaxing, cozy room. We were also able to store our bags after check out as our flight was not until later in the day. It was a fabulous stay and I would definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r572571063-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>572571063</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Place Right on Campus!</t>
+  </si>
+  <si>
+    <t>I just stayed here with my son one night since we were taking a tour of UCLA. The room was very comfortable, elegantly furnished and clean. The lobby likewise. The staff were friendly and helpful. The garden around the guest house is lush and beautiful--it's L.A.! It's very conveniently located on the northern end of campus with a shuttle stop nearby, or an easy 15 minute walk into the center of campus. The continental breakfast was good. There was no cereal for some reason. Is cereal not an L.A. thing? But there were plenty of other good things to eat, so it worked out fine. It was easy to book it over the phone, and the price is reasonable for L.A. I couldn't find any other affordable hotel right on/near UCLA, except for one right next to the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>I just stayed here with my son one night since we were taking a tour of UCLA. The room was very comfortable, elegantly furnished and clean. The lobby likewise. The staff were friendly and helpful. The garden around the guest house is lush and beautiful--it's L.A.! It's very conveniently located on the northern end of campus with a shuttle stop nearby, or an easy 15 minute walk into the center of campus. The continental breakfast was good. There was no cereal for some reason. Is cereal not an L.A. thing? But there were plenty of other good things to eat, so it worked out fine. It was easy to book it over the phone, and the price is reasonable for L.A. I couldn't find any other affordable hotel right on/near UCLA, except for one right next to the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r571738620-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571738620</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>quiet, comfortable and welcoming</t>
+  </si>
+  <si>
+    <t>the UCLA Guest House continues to maintain a quality arrangement for visitors to campus, with a warm atmosphere, comfortable rooms, and a very quiet internal atmosphere that is relaxing after a full day of work on campus.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>the UCLA Guest House continues to maintain a quality arrangement for visitors to campus, with a warm atmosphere, comfortable rooms, and a very quiet internal atmosphere that is relaxing after a full day of work on campus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r568540040-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>568540040</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>WFLO conference</t>
+  </si>
+  <si>
+    <t>Room was clean and up to date. Breakfast was ok but it was the same every morning. The room is a bit small but I stayed by myself so it was ok. Next to the campus but on the side that was next to a neighborhood. So no entertainment.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean and up to date. Breakfast was ok but it was the same every morning. The room is a bit small but I stayed by myself so it was ok. Next to the campus but on the side that was next to a neighborhood. So no entertainment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r552910539-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>552910539</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t>We visited UCLA with our son to take a tour of the university. It was great to be able to stay on campus but I wasn't expecting much, especially at a relatively low price. I was surprised though - while a bit dated, the rooms were clean and comfortable, the staff was super helpful and friendly, and the breakfast was unexpectedly good. Definitely recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>We visited UCLA with our son to take a tour of the university. It was great to be able to stay on campus but I wasn't expecting much, especially at a relatively low price. I was surprised though - while a bit dated, the rooms were clean and comfortable, the staff was super helpful and friendly, and the breakfast was unexpectedly good. Definitely recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r546076539-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>546076539</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>GREAT FIND!</t>
+  </si>
+  <si>
+    <t>LOVE this place, the staff, the location, the amenities, the breakfast, the clientele, even the parking.  Very hard to beat.  If you have a connection to UCLA, this is the place, even for a weekend getaway.  Absolutely perfect if you are visiting a student here.  No pool and no room service, but we never missed either in the slightest, and you can always do delivery.  Staff was warm and friendly.  Breakfast was just wonderful and very unique.  Not your standard fare.  Did not use the laundry room, but found great comfort in even knowing it was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>LOVE this place, the staff, the location, the amenities, the breakfast, the clientele, even the parking.  Very hard to beat.  If you have a connection to UCLA, this is the place, even for a weekend getaway.  Absolutely perfect if you are visiting a student here.  No pool and no room service, but we never missed either in the slightest, and you can always do delivery.  Staff was warm and friendly.  Breakfast was just wonderful and very unique.  Not your standard fare.  Did not use the laundry room, but found great comfort in even knowing it was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r542349401-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542349401</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>UCLA GH</t>
+  </si>
+  <si>
+    <t>extremely well. neat rooms courteous staff. excellent breakfast. good facilities. proximity for anderson college is good. surroundings are good. Proximity for getting cab is good. Nice place to stay. even for family. Lunch and dinner need to manage.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>extremely well. neat rooms courteous staff. excellent breakfast. good facilities. proximity for anderson college is good. surroundings are good. Proximity for getting cab is good. Nice place to stay. even for family. Lunch and dinner need to manage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r527703027-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>527703027</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Very convenient to UCLA, Westwood and great breakfast buffet!</t>
+  </si>
+  <si>
+    <t>The UCLA Guest house is perfect if you need to be on campus and its so convenient to Westwood, which is delightful. The staff is wonderful and the buffet is fantastic. The guest rooms are not as updated as they could be, but aside from that, highly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, Front Office Manager at UCLA Guest House, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>The UCLA Guest house is perfect if you need to be on campus and its so convenient to Westwood, which is delightful. The staff is wonderful and the buffet is fantastic. The guest rooms are not as updated as they could be, but aside from that, highly recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r527656932-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>527656932</t>
+  </si>
+  <si>
+    <t>Great Location for UCLA Students</t>
+  </si>
+  <si>
+    <t>We brought our first college-bound child to school and stayed here the night before.  The location is perfect for UCLA-based stays.  What's more, we found the rate very reasonable for the neighborhood.  You get to park in a security-controlled garage, which is nice, though the stalls are on the small side.The room was a bit cramped with a queen and twin bed, but comfortable enough.  We didn't think to ask if the room came with a refrigerator, so we were let down on that front, but we should have inquired first.  Interestingly, there is a large open space in the bathroom that could easily accommodate a refrigerator, so I'm not sure why it doesn't have one.The breakfast option was lovely with a large variety of options, including gluten-free, which my wife appreciated.  Seating in the breakfast area can be challenging, but once you're seated it is comfortable.The staff were extremely helpful, including going upstairs to check our door when one of the keys stopped working.  They also gave us good campus directions as well when we needed to find a certain department.We'd stay here again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>We brought our first college-bound child to school and stayed here the night before.  The location is perfect for UCLA-based stays.  What's more, we found the rate very reasonable for the neighborhood.  You get to park in a security-controlled garage, which is nice, though the stalls are on the small side.The room was a bit cramped with a queen and twin bed, but comfortable enough.  We didn't think to ask if the room came with a refrigerator, so we were let down on that front, but we should have inquired first.  Interestingly, there is a large open space in the bathroom that could easily accommodate a refrigerator, so I'm not sure why it doesn't have one.The breakfast option was lovely with a large variety of options, including gluten-free, which my wife appreciated.  Seating in the breakfast area can be challenging, but once you're seated it is comfortable.The staff were extremely helpful, including going upstairs to check our door when one of the keys stopped working.  They also gave us good campus directions as well when we needed to find a certain department.We'd stay here again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r524898043-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>524898043</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Pleasant On-Campus Housing</t>
+  </si>
+  <si>
+    <t>Built in 1985, and very well maintained and kept up. My room (#241, overlooking Hilgard) was very clean and comfortable with new-appearing furnishings. Not large, but quite enough for one or two people; iron, ironing board, hair dryer, etc. No in-room coffee, but it was available downstairs in the lounge. Breakfast had both hot and cold items, and a decent selection of pastries and fruit. Friendly staff. Fast internet. Only limited parking at the Guest House, but several campus parking structures are within an easy walk. Not a full-service hotel, but very useful for those who (like me) are coming to the campus as a destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Built in 1985, and very well maintained and kept up. My room (#241, overlooking Hilgard) was very clean and comfortable with new-appearing furnishings. Not large, but quite enough for one or two people; iron, ironing board, hair dryer, etc. No in-room coffee, but it was available downstairs in the lounge. Breakfast had both hot and cold items, and a decent selection of pastries and fruit. Friendly staff. Fast internet. Only limited parking at the Guest House, but several campus parking structures are within an easy walk. Not a full-service hotel, but very useful for those who (like me) are coming to the campus as a destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r517724694-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>517724694</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Serenity in LA</t>
+  </si>
+  <si>
+    <t>We visited UCLA to tour the campus for one of my daughter's top college choices. Well what a beautiful experience. The small boutique-like hotel was clean, friendly and very beautiful. Staff were so cheerful and helpful I wished we had stayed longer. No, it isn't the most luxurious places, but it wowed us all the same. I give it my highest recommendation if your travels take you to UCLA.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>We visited UCLA to tour the campus for one of my daughter's top college choices. Well what a beautiful experience. The small boutique-like hotel was clean, friendly and very beautiful. Staff were so cheerful and helpful I wished we had stayed longer. No, it isn't the most luxurious places, but it wowed us all the same. I give it my highest recommendation if your travels take you to UCLA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r508501148-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508501148</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Welcoming and convenient</t>
+  </si>
+  <si>
+    <t>We chose the UCLA Guest House to stay during our college tours of LA and was so pleased we did.  It was close to everything.  It was clean, great staff, and amazing breakfast.  Some people say the rooms are too small.  They were fine for us!  I would recommend the UCLA Guest House to anyone needing a safe place to stay and easy access to get around.  They have parking, though we opted for Lyft while in the LA area and it worked great..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>We chose the UCLA Guest House to stay during our college tours of LA and was so pleased we did.  It was close to everything.  It was clean, great staff, and amazing breakfast.  Some people say the rooms are too small.  They were fine for us!  I would recommend the UCLA Guest House to anyone needing a safe place to stay and easy access to get around.  They have parking, though we opted for Lyft while in the LA area and it worked great..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r497718300-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>497718300</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>For those visiting UCLA for business or pleasure I can't think of a better place to stay than the UCLA Guest House. Located right on campus, it provides easy access to Royce Hall and all the other campus attractions and events. It is a clean, quiet, well-maintained facility, staffed by friendly people.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>For those visiting UCLA for business or pleasure I can't think of a better place to stay than the UCLA Guest House. Located right on campus, it provides easy access to Royce Hall and all the other campus attractions and events. It is a clean, quiet, well-maintained facility, staffed by friendly people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r490988280-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>490988280</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>An excellent choice</t>
+  </si>
+  <si>
+    <t>The Guest House combines an old-fashioned charm with the superb convenience. For those who have business on the UCLA campus, being able to walk to a meeting is matchless. In Los Angeles, where everything seems to be built on a grand scale, I was delighted to be able to return to this homey retreat. I found the staff to be exceptionally helpful and courteous. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>The Guest House combines an old-fashioned charm with the superb convenience. For those who have business on the UCLA campus, being able to walk to a meeting is matchless. In Los Angeles, where everything seems to be built on a grand scale, I was delighted to be able to return to this homey retreat. I found the staff to be exceptionally helpful and courteous. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r490985479-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>490985479</t>
+  </si>
+  <si>
+    <t>ucla guest house exellent choice</t>
+  </si>
+  <si>
+    <t>very well located when you have an event at UCLA  .very nice breakfast and convenient parking. the room was clean and quiet   very friendly and helpful staff-  we would stay here again-  good value for the area-nice common areas and the campus offers a beautiful and serene settingMoreShow less</t>
+  </si>
+  <si>
+    <t>very well located when you have an event at UCLA  .very nice breakfast and convenient parking. the room was clean and quiet   very friendly and helpful staff-  we would stay here again-  good value for the area-nice common areas and the campus offers a beautiful and serene settingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r488765326-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>488765326</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Place to stay!</t>
+  </si>
+  <si>
+    <t>My son and I stayed to the UCLA Guest House when he toured UCLA as a prospective student.  This was a beautiful facility on a beautiful campus.  Service was excellent.  Those at the front desk were very helpful with way finding.  We were able to leave the car parked at the Guest House while we toured the campus, so we didn't have to worry about parking.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>My son and I stayed to the UCLA Guest House when he toured UCLA as a prospective student.  This was a beautiful facility on a beautiful campus.  Service was excellent.  Those at the front desk were very helpful with way finding.  We were able to leave the car parked at the Guest House while we toured the campus, so we didn't have to worry about parking.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r476249339-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>476249339</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Surprie on the UCLA Campus</t>
+  </si>
+  <si>
+    <t>The UCLA  Guest House  is a pleasant surprise. It is a delightful 1930's California styled hotel ib in the NE Side of the UCLA Campus. It has great historical photos of UCLA, a warm and welcoming lounge area where  fantastic breakfast is served in the morning. The staff is very helpful and friendly.  The front desk staff could not have been friendlier - had great knowledge of the campus and Los Angeles in general and really made you feel welcome and comfortable. . Highly recommend staying here! If my daughter chooses UCLA then I know I will be back!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>The UCLA  Guest House  is a pleasant surprise. It is a delightful 1930's California styled hotel ib in the NE Side of the UCLA Campus. It has great historical photos of UCLA, a warm and welcoming lounge area where  fantastic breakfast is served in the morning. The staff is very helpful and friendly.  The front desk staff could not have been friendlier - had great knowledge of the campus and Los Angeles in general and really made you feel welcome and comfortable. . Highly recommend staying here! If my daughter chooses UCLA then I know I will be back!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r471238742-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>471238742</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Amazing breakfast and service</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful.  The location is perfect.  The breakfast is the best I have ever enjoyed!  It is truly amazing.  The staff are genuinely friendly and go out of their way to be helpful.   I couldn't have had a better experience and I definitely plan on staying there again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful.  The location is perfect.  The breakfast is the best I have ever enjoyed!  It is truly amazing.  The staff are genuinely friendly and go out of their way to be helpful.   I couldn't have had a better experience and I definitely plan on staying there again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r470887358-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>470887358</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Charming Guest House, Amazing Breakfast, Delightful Staff</t>
+  </si>
+  <si>
+    <t>I stayed at the UCLA Guest House while on campus for a conference and I'm so glad I did. It's a charming, homey-feeling locale with a lovely front porch, clean rooms with all the amenities, and a terrific location. The complimentary breakfast was the best breakfast I think I've ever had. Seriously, it was amazing! They also have a nightly Manager's Reception with complimentary cocktails and hors d'oeuvres. The front desk staff could not have been friendlier - had great knowledge of the campus and Los Angeles in general and really made you feel welcome and comfortable. Just steps away from public transportation and an easy cab or Uber ride to anything you'd want to see. Highly recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the UCLA Guest House while on campus for a conference and I'm so glad I did. It's a charming, homey-feeling locale with a lovely front porch, clean rooms with all the amenities, and a terrific location. The complimentary breakfast was the best breakfast I think I've ever had. Seriously, it was amazing! They also have a nightly Manager's Reception with complimentary cocktails and hors d'oeuvres. The front desk staff could not have been friendlier - had great knowledge of the campus and Los Angeles in general and really made you feel welcome and comfortable. Just steps away from public transportation and an easy cab or Uber ride to anything you'd want to see. Highly recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r467926509-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>467926509</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Mixed review</t>
+  </si>
+  <si>
+    <t>We checked in here for one night prior to doing an admission tour at UCLA. The hotel is very convenient to campus and there is parking on site for a small fee.  I had two rooms, one for my spouse and me and one for my teens. The rooms are reasonable size. One of our rooms given to us on check in hadn't been cleaned. Used towels, trash, dirty wine glasses were in the room. Housekeeping came quickly to fix. The other room was clean. Our rooms were on the second floor near the central open part and the next morning I was woken up early by the noise from the open breakfast area, people's conversations, laughter, etc. When we finally went down to eat there wasn't enough space available to sit together. They could use more tables.  I think if you want convenience to UCLA at a reasonable price, this is fine but ask for a room as far away from the center as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>We checked in here for one night prior to doing an admission tour at UCLA. The hotel is very convenient to campus and there is parking on site for a small fee.  I had two rooms, one for my spouse and me and one for my teens. The rooms are reasonable size. One of our rooms given to us on check in hadn't been cleaned. Used towels, trash, dirty wine glasses were in the room. Housekeeping came quickly to fix. The other room was clean. Our rooms were on the second floor near the central open part and the next morning I was woken up early by the noise from the open breakfast area, people's conversations, laughter, etc. When we finally went down to eat there wasn't enough space available to sit together. They could use more tables.  I think if you want convenience to UCLA at a reasonable price, this is fine but ask for a room as far away from the center as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r466164906-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>466164906</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent and friendly service! Such a nice, relaxing atmosphere at an affordable price. I would definitely recommend it! It is located on the UCLA campus and convenient to downtown and Westwood area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Excellent and friendly service! Such a nice, relaxing atmosphere at an affordable price. I would definitely recommend it! It is located on the UCLA campus and convenient to downtown and Westwood area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r466126828-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>466126828</t>
+  </si>
+  <si>
+    <t>Visit to UCLA</t>
+  </si>
+  <si>
+    <t>The UCLA Guest House is the place to stay when visiting UCLA.  Clean, staff-friendly, reasonably priced and cozy, you feel like you never left home. The Guest House is located on the UCLA campus -- and one of the best kept secrets in Westwood .  I've stayed there many times.  There's also the daily buffet breakfast and the manager's reception (wine and cheese) in the late afternoon/early evening-- both complimentary -- that comes with staying there.  Who can beat that?   Ideal for families visiting the UCLA campus with their college-bound children or for UCLA alums needing a quiet place to stay in Los Angeles, away from the bustling streets and busy freeways. MoreShow less</t>
+  </si>
+  <si>
+    <t>The UCLA Guest House is the place to stay when visiting UCLA.  Clean, staff-friendly, reasonably priced and cozy, you feel like you never left home. The Guest House is located on the UCLA campus -- and one of the best kept secrets in Westwood .  I've stayed there many times.  There's also the daily buffet breakfast and the manager's reception (wine and cheese) in the late afternoon/early evening-- both complimentary -- that comes with staying there.  Who can beat that?   Ideal for families visiting the UCLA campus with their college-bound children or for UCLA alums needing a quiet place to stay in Los Angeles, away from the bustling streets and busy freeways. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r454846579-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>454846579</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent experience at UCLA Guest House</t>
+  </si>
+  <si>
+    <t>This was the second time I was at the UCLA GH.  Exceptional value for the quality of the accommodations.  Room was clean, well appointed and the bed was very comfortable.  Staff is pleasant and the complimentary breakfast and evening reception had good choices and quality foods. Have already booked a visit in six months.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>This was the second time I was at the UCLA GH.  Exceptional value for the quality of the accommodations.  Room was clean, well appointed and the bed was very comfortable.  Staff is pleasant and the complimentary breakfast and evening reception had good choices and quality foods. Have already booked a visit in six months.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r453598252-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>453598252</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Great location and staff!</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for a UCLA visit. The location (on campus) was perfect and finding our way around was easy. The staff are extremely friendly and helpful. We needed a cot and it was waiting in our room after check in. The afternoon refreshments and breakfast are lovely: good quality and little different than the usually buffet. We would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for a UCLA visit. The location (on campus) was perfect and finding our way around was easy. The staff are extremely friendly and helpful. We needed a cot and it was waiting in our room after check in. The afternoon refreshments and breakfast are lovely: good quality and little different than the usually buffet. We would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r448726517-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>448726517</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Quiet and great stay</t>
+  </si>
+  <si>
+    <t>staffs are very helpful, attentive and friendly esp Richard (manager) and Joe. Facility is well maintained, room is spacious for 3 and toilet is very clean. Laundry machines are working well with reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>staffs are very helpful, attentive and friendly esp Richard (manager) and Joe. Facility is well maintained, room is spacious for 3 and toilet is very clean. Laundry machines are working well with reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r435364579-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>435364579</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Convenient and nice</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the quality of my stay. Everything was clean, staff was very friendly and accommodating. I appreciate the convenient parking and accessibility to the campus. I would recommend to others. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the quality of my stay. Everything was clean, staff was very friendly and accommodating. I appreciate the convenient parking and accessibility to the campus. I would recommend to others. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r433083628-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>433083628</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The room was nice and the bathroom was fairly luxurious. Lots of hot water with good water pressure. The location is by far the best part, though, right on the UCLA campus. The lobby and breakfast area is open and there are guest rooms immediately adjacent on the first floor. These rooms must get a fair amount of noise. My colleague who has stayed many times advised to ask for a 2nd floor room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>The room was nice and the bathroom was fairly luxurious. Lots of hot water with good water pressure. The location is by far the best part, though, right on the UCLA campus. The lobby and breakfast area is open and there are guest rooms immediately adjacent on the first floor. These rooms must get a fair amount of noise. My colleague who has stayed many times advised to ask for a 2nd floor room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r431526714-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>431526714</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>UCLA Guest House never disappoints!</t>
+  </si>
+  <si>
+    <t>Great place to stay when visiting our UCLA student! Always our first choice as a place to stay!! Friendly and helpful staff, clean, great breakfast, great location and always a great experience. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay when visiting our UCLA student! Always our first choice as a place to stay!! Friendly and helpful staff, clean, great breakfast, great location and always a great experience. Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r431349797-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>431349797</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>On campus and it's quaint and clean</t>
+  </si>
+  <si>
+    <t>We were at the guest house for Bruin Family Weekend.  Our room was so clean and comfortable.  Our neighbors were quiet too.  We have stayed here many times but always on a Sat and or Sunday and so when we got managers reception tickets for 2 nice drinks each it was perfect.  It is M-F I am guessing.  The reception has cheese, fruit, meat, breads.  Wine and or beer.  The price of the guest house isn't cheap but still less than the W and Marriott down on Wilshire.  For $219 (no tax) and $12 for parking it's worth it if you are visiting UCLA.  It's a bit on the N end so not necessarily a short walk to Westwood.  And you get a nice breakfast each day. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were at the guest house for Bruin Family Weekend.  Our room was so clean and comfortable.  Our neighbors were quiet too.  We have stayed here many times but always on a Sat and or Sunday and so when we got managers reception tickets for 2 nice drinks each it was perfect.  It is M-F I am guessing.  The reception has cheese, fruit, meat, breads.  Wine and or beer.  The price of the guest house isn't cheap but still less than the W and Marriott down on Wilshire.  For $219 (no tax) and $12 for parking it's worth it if you are visiting UCLA.  It's a bit on the N end so not necessarily a short walk to Westwood.  And you get a nice breakfast each day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r431037964-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>431037964</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel but beds too firm</t>
+  </si>
+  <si>
+    <t>Although my student is a senior, I never stayed at the Guest House. On  campus itself and very secure with underground parking. Nice breakfast and a manager's wine/beer reception M-F. Only issue is the beds were very firm. Otherwise very nice place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Although my student is a senior, I never stayed at the Guest House. On  campus itself and very secure with underground parking. Nice breakfast and a manager's wine/beer reception M-F. Only issue is the beds were very firm. Otherwise very nice place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r428905465-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>428905465</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>The staff at the UCLA Guest House were extremely friendly and helpful. Check in and check out was smooth. Rooms were clean and were spacious. The accommodations were very nice and I highly recommend this establishment. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>The staff at the UCLA Guest House were extremely friendly and helpful. Check in and check out was smooth. Rooms were clean and were spacious. The accommodations were very nice and I highly recommend this establishment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r421611149-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>421611149</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Spa-like experience on the UCLA campus!</t>
+  </si>
+  <si>
+    <t>If you're looking for the perfect place to stay on or near the UCLA campus, look no further. The accomodations couldn't be better, the food is amazing, and the staff is very courteous and helpful. I wish I could have stayed longer!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>If you're looking for the perfect place to stay on or near the UCLA campus, look no further. The accomodations couldn't be better, the food is amazing, and the staff is very courteous and helpful. I wish I could have stayed longer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r417832872-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>417832872</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Very pleasantly surprised</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at UCLA guesthouse from Sept 5 to 10, 2016 to attend the new freshmen orientation on campus. Initially I was not expecting much of the stay thinking that it is just a small guesthouse (with limited services) which cannot compete with the bigger hotels. Fortunately I was proven to be very wrong!
+Upon arrival there was only one person at thd front desk. But she immediately came out to help us when we asked for assistance to bring our 4 big luggages to our room. We didnt notice that there was an elevator and thought we needed stairs.
+The room is old and in need of upgrading. But it is clean and the beds are super comfortable and welcoming especially to those who are jet lagged.
+There was no complimentary bottled water nor body wash for the room. Only shampoo, conditioner and  lotion were offered. Plastic cups were available and there were ice and vending machines (with water) on the 2nd floor. There was also a small laundromat at the 2nd floor.
+Breakfast was complimemtary and quite adequate with hot oatmeal, fruits, hard boiled eggs, cheeses, processed meats and a variety of bakery items. At 5:30 to 7:30pm each day, simple cocktails with food was offered. There was no restaurant in the hotel but if you walk across the street, Ucla Lu Valle Commons offer a variety of food choices. Inside the Ucla campus were...My daughter and I stayed at UCLA guesthouse from Sept 5 to 10, 2016 to attend the new freshmen orientation on campus. Initially I was not expecting much of the stay thinking that it is just a small guesthouse (with limited services) which cannot compete with the bigger hotels. Fortunately I was proven to be very wrong!Upon arrival there was only one person at thd front desk. But she immediately came out to help us when we asked for assistance to bring our 4 big luggages to our room. We didnt notice that there was an elevator and thought we needed stairs.The room is old and in need of upgrading. But it is clean and the beds are super comfortable and welcoming especially to those who are jet lagged.There was no complimentary bottled water nor body wash for the room. Only shampoo, conditioner and  lotion were offered. Plastic cups were available and there were ice and vending machines (with water) on the 2nd floor. There was also a small laundromat at the 2nd floor.Breakfast was complimemtary and quite adequate with hot oatmeal, fruits, hard boiled eggs, cheeses, processed meats and a variety of bakery items. At 5:30 to 7:30pm each day, simple cocktails with food was offered. There was no restaurant in the hotel but if you walk across the street, Ucla Lu Valle Commons offer a variety of food choices. Inside the Ucla campus were other food restaurants and options.Under LuValle commons is an Ucla store that serves as both a convenience store and a bookstore.One downside is that the guesthouse is sutuated far from the residence halls. It will take 30 minutes to walk to the dorms. But it is a short 5 minute uber ride away.But what made our stay memorable was not the room, food or convenience. It was the people that run Ucla Guesthouse. Everybody here is very kind, friendly and helpful. Though you are a thousand miles away from home, they make you feel like you are part of their family. Though they are normally busy I never see them flustered or look annoyed. They will talk to you patiently and offer a listening ear to parents or students struggling with separation anxiety or homesickness.Overall I am very impressed and will not hesitate to recommend Ucla guesthouse to anyone visiting the Ucla campus.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at UCLA guesthouse from Sept 5 to 10, 2016 to attend the new freshmen orientation on campus. Initially I was not expecting much of the stay thinking that it is just a small guesthouse (with limited services) which cannot compete with the bigger hotels. Fortunately I was proven to be very wrong!
+Upon arrival there was only one person at thd front desk. But she immediately came out to help us when we asked for assistance to bring our 4 big luggages to our room. We didnt notice that there was an elevator and thought we needed stairs.
+The room is old and in need of upgrading. But it is clean and the beds are super comfortable and welcoming especially to those who are jet lagged.
+There was no complimentary bottled water nor body wash for the room. Only shampoo, conditioner and  lotion were offered. Plastic cups were available and there were ice and vending machines (with water) on the 2nd floor. There was also a small laundromat at the 2nd floor.
+Breakfast was complimemtary and quite adequate with hot oatmeal, fruits, hard boiled eggs, cheeses, processed meats and a variety of bakery items. At 5:30 to 7:30pm each day, simple cocktails with food was offered. There was no restaurant in the hotel but if you walk across the street, Ucla Lu Valle Commons offer a variety of food choices. Inside the Ucla campus were...My daughter and I stayed at UCLA guesthouse from Sept 5 to 10, 2016 to attend the new freshmen orientation on campus. Initially I was not expecting much of the stay thinking that it is just a small guesthouse (with limited services) which cannot compete with the bigger hotels. Fortunately I was proven to be very wrong!Upon arrival there was only one person at thd front desk. But she immediately came out to help us when we asked for assistance to bring our 4 big luggages to our room. We didnt notice that there was an elevator and thought we needed stairs.The room is old and in need of upgrading. But it is clean and the beds are super comfortable and welcoming especially to those who are jet lagged.There was no complimentary bottled water nor body wash for the room. Only shampoo, conditioner and  lotion were offered. Plastic cups were available and there were ice and vending machines (with water) on the 2nd floor. There was also a small laundromat at the 2nd floor.Breakfast was complimemtary and quite adequate with hot oatmeal, fruits, hard boiled eggs, cheeses, processed meats and a variety of bakery items. At 5:30 to 7:30pm each day, simple cocktails with food was offered. There was no restaurant in the hotel but if you walk across the street, Ucla Lu Valle Commons offer a variety of food choices. Inside the Ucla campus were other food restaurants and options.Under LuValle commons is an Ucla store that serves as both a convenience store and a bookstore.One downside is that the guesthouse is sutuated far from the residence halls. It will take 30 minutes to walk to the dorms. But it is a short 5 minute uber ride away.But what made our stay memorable was not the room, food or convenience. It was the people that run Ucla Guesthouse. Everybody here is very kind, friendly and helpful. Though you are a thousand miles away from home, they make you feel like you are part of their family. Though they are normally busy I never see them flustered or look annoyed. They will talk to you patiently and offer a listening ear to parents or students struggling with separation anxiety or homesickness.Overall I am very impressed and will not hesitate to recommend Ucla guesthouse to anyone visiting the Ucla campus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r416657453-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>416657453</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>Our stay at UCLA guest house was homely and the best we could have imagined in US. Staff was cordial and facilities provided here are excellent and never felt we are away from home. The Asst General Manager was very supportive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay at UCLA guest house was homely and the best we could have imagined in US. Staff was cordial and facilities provided here are excellent and never felt we are away from home. The Asst General Manager was very supportive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r407295224-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>407295224</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Hidden gem</t>
+  </si>
+  <si>
+    <t>Stabled on to this gem, so glad that we stayed here. Walking distance to everything we were doing at the university. Never used the car, accept when we were going home. I would stay here again at a heart beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Stabled on to this gem, so glad that we stayed here. Walking distance to everything we were doing at the university. Never used the car, accept when we were going home. I would stay here again at a heart beat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r401507294-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>401507294</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Good meticulously clean hotel</t>
+  </si>
+  <si>
+    <t>The staff at this hotel certainly helped make for a successful stay.  We were at UCLA for a medical appointment flying in from out of state.  As we did not want to drive we relied upon taxis for all of our needs.  The staff were great at ordering taxis and the campus shuttle which can be ordered in advance.  The hotel is quiet, we overlooked at leafy street which had minimal traffic. This might change in term time?  Breakfasts are a rather odd mix of healthy foods, fresh fruit, oatmeal and yogurt and cooked meats and high fat cheeses.   The rooms are fairly small but well appointed with all you need. Good linens, clean bathrooms and good towels.   We walked to the impressive sculpture garden and to a student cafeteria which had great coffee and good hamburgers. Since there is no restaurant within walking distance from the hotel it is a pity the cafeteria closes at 4.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>The staff at this hotel certainly helped make for a successful stay.  We were at UCLA for a medical appointment flying in from out of state.  As we did not want to drive we relied upon taxis for all of our needs.  The staff were great at ordering taxis and the campus shuttle which can be ordered in advance.  The hotel is quiet, we overlooked at leafy street which had minimal traffic. This might change in term time?  Breakfasts are a rather odd mix of healthy foods, fresh fruit, oatmeal and yogurt and cooked meats and high fat cheeses.   The rooms are fairly small but well appointed with all you need. Good linens, clean bathrooms and good towels.   We walked to the impressive sculpture garden and to a student cafeteria which had great coffee and good hamburgers. Since there is no restaurant within walking distance from the hotel it is a pity the cafeteria closes at 4.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r398607773-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>398607773</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Very pleased with UCLA Guest House.</t>
+  </si>
+  <si>
+    <t>We were treated warmly by everyone we encountered on site at the UCLA Guest House. I had looked online for options for where to stay in Westwood since my daughter was going to be attending the summer Volleyball Camp at UCLA. My search was frustrating, as all the options were so incredibly expensive or not rated well on any of the travel websites I utilized. My husband prompted me to search for an on-site option at UCLA, and I was so pleased to fine the Guest House online. The person who assisted with our reservation was very professional and helpful. We were able to book 2 of the 3 nights we were looking for. Unfortunately, they were full on one of the nights, but I literally called 1 week prior to our visit. We were so pleased when we found our room to be incredibly clean, comfortable and quiet. They provided complimentary continental breakfasts that were just perfect. There was always tea, coffee, and hot chocolate available in the lounge area. The location was better than any other option we could have stayed at in the area. We are definitely going to return next summer when my daughter returns for another camp. I just can't say enough positive things about the Guest House. It was truly much much more than we expected. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>We were treated warmly by everyone we encountered on site at the UCLA Guest House. I had looked online for options for where to stay in Westwood since my daughter was going to be attending the summer Volleyball Camp at UCLA. My search was frustrating, as all the options were so incredibly expensive or not rated well on any of the travel websites I utilized. My husband prompted me to search for an on-site option at UCLA, and I was so pleased to fine the Guest House online. The person who assisted with our reservation was very professional and helpful. We were able to book 2 of the 3 nights we were looking for. Unfortunately, they were full on one of the nights, but I literally called 1 week prior to our visit. We were so pleased when we found our room to be incredibly clean, comfortable and quiet. They provided complimentary continental breakfasts that were just perfect. There was always tea, coffee, and hot chocolate available in the lounge area. The location was better than any other option we could have stayed at in the area. We are definitely going to return next summer when my daughter returns for another camp. I just can't say enough positive things about the Guest House. It was truly much much more than we expected. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r393931401-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>393931401</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Warm and Welcoming Stay at UCLA Guest House</t>
+  </si>
+  <si>
+    <t>Staff were some of the most friendly, warm, and helpful hotel staff I have ever encountered.  They made all aspects of my stay enjoyable and went above and beyond.The facility was warm and cozy, rooms lovely, and the breakfast buffet one of the best "continental" breakfasts I've ever seen.I'd definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Staff were some of the most friendly, warm, and helpful hotel staff I have ever encountered.  They made all aspects of my stay enjoyable and went above and beyond.The facility was warm and cozy, rooms lovely, and the breakfast buffet one of the best "continental" breakfasts I've ever seen.I'd definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r392293999-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>392293999</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Nice but</t>
+  </si>
+  <si>
+    <t>The place was very well kept. The price was fair. There are no amenities like pool or spa. They serve a wonderful breakfast. The but came recently when inquiring into a stay and finding out they bumped the prices significantly and to add they informed us that was the price for single occupancy and a second person i.e. husband or wife in the room was an  extra $20-$25 a nite. So from very good to very awkwardMoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>The place was very well kept. The price was fair. There are no amenities like pool or spa. They serve a wonderful breakfast. The but came recently when inquiring into a stay and finding out they bumped the prices significantly and to add they informed us that was the price for single occupancy and a second person i.e. husband or wife in the room was an  extra $20-$25 a nite. So from very good to very awkwardMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r385919658-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>385919658</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Terrific value - and a great place to stay!</t>
+  </si>
+  <si>
+    <t>If I will be staying in LA and have business with UCLA, I always try to stay at the Guest House. The location could not be more perfect: right on campus off Hilgard just south of Sunset. The rooms are on the cozy side, but nicely appointed. There is on-site location subject to space available. The staff are all, to a person, friendly and welcoming. I feel right at home there, and look forward to my next visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>If I will be staying in LA and have business with UCLA, I always try to stay at the Guest House. The location could not be more perfect: right on campus off Hilgard just south of Sunset. The rooms are on the cozy side, but nicely appointed. There is on-site location subject to space available. The staff are all, to a person, friendly and welcoming. I feel right at home there, and look forward to my next visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r381283163-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>381283163</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Great Stay at UCLA!</t>
+  </si>
+  <si>
+    <t>Great location to visit your student at UCLA!   You can easily walk to everything on campus and the staff and guesthouse are very clean and neat.  The breakfast was very good and it was really great to have a parking spot on campus!MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Great location to visit your student at UCLA!   You can easily walk to everything on campus and the staff and guesthouse are very clean and neat.  The breakfast was very good and it was really great to have a parking spot on campus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r380881024-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>380881024</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>very pleasant stay</t>
+  </si>
+  <si>
+    <t>Really enjoyed staying at this lovely, European-style hotel directly on a beautiful campus. Staff were warm and friendly - especially Richard, who went out of his way to make me and my mom feel immediately welcomed and taken care of. One of the best included breakfasts I've ever had at an American hotel. Everything is arranged for guests' comfort and convenience. Great value for such a nice location in a big city - would definitely recommend to anyone who needs to stay in this part of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Really enjoyed staying at this lovely, European-style hotel directly on a beautiful campus. Staff were warm and friendly - especially Richard, who went out of his way to make me and my mom feel immediately welcomed and taken care of. One of the best included breakfasts I've ever had at an American hotel. Everything is arranged for guests' comfort and convenience. Great value for such a nice location in a big city - would definitely recommend to anyone who needs to stay in this part of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r372581823-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>372581823</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Visiting UCLA?</t>
+  </si>
+  <si>
+    <t>My husband and I visited UCLA to see our granddaughter. Our daughter, who is an alumna and was also visiting, recommended the guesthouse. The staff is wonderful. They are truly welcoming and make you feel at home.  Our room was small but very comfortable and quiet, with an excellent bed. Though in need of some updates (the carpet, for instance, has seen better days), the hotel is very clean, and the common areas are large and pleasant. The continental breakfast indeed resembles what you get on the continent:  meats, cheeses, a nice array of baked goods, and so forth. Several restaurants deliver, should you not feel like going out, and some rooms have refrigerators. There's a small coin launderette on site. The location is perfect for the purpose, UCLA being just across the street (stroll through the sculpture garden!), and Westwood nearby. We used Über or walked to our destinations, but they do have secure, onsite parking for drivers. The Über fare from/to LAX, by the way, was around $25 (May 2016).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, Manager at UCLA Guest House, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I visited UCLA to see our granddaughter. Our daughter, who is an alumna and was also visiting, recommended the guesthouse. The staff is wonderful. They are truly welcoming and make you feel at home.  Our room was small but very comfortable and quiet, with an excellent bed. Though in need of some updates (the carpet, for instance, has seen better days), the hotel is very clean, and the common areas are large and pleasant. The continental breakfast indeed resembles what you get on the continent:  meats, cheeses, a nice array of baked goods, and so forth. Several restaurants deliver, should you not feel like going out, and some rooms have refrigerators. There's a small coin launderette on site. The location is perfect for the purpose, UCLA being just across the street (stroll through the sculpture garden!), and Westwood nearby. We used Über or walked to our destinations, but they do have secure, onsite parking for drivers. The Über fare from/to LAX, by the way, was around $25 (May 2016).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r362297856-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>362297856</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>fills a need in the ucla area</t>
+  </si>
+  <si>
+    <t>thus, we stayed in this guest house.  for what it is, I would rate everything excellent, parking easy, check in/out efficient , professional and staff helpful.  Very clean lobby area and rooms.  Location is without doubt the best for the university or med center. and breakfast was much more than expected.  we  had a wide range of choices, everything well presented, fresh, replenished and seating area well kept and accessible for everyone.  Kudos to the breakfast staff! This is not a high end hotel, not a hotel with extras, fluffy towels, modern bath or beautiful fabrics or a lobby where you want to sit and have a drink..it is "sturdy, well run and meets a need"...for what it is they do a great job.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>thus, we stayed in this guest house.  for what it is, I would rate everything excellent, parking easy, check in/out efficient , professional and staff helpful.  Very clean lobby area and rooms.  Location is without doubt the best for the university or med center. and breakfast was much more than expected.  we  had a wide range of choices, everything well presented, fresh, replenished and seating area well kept and accessible for everyone.  Kudos to the breakfast staff! This is not a high end hotel, not a hotel with extras, fluffy towels, modern bath or beautiful fabrics or a lobby where you want to sit and have a drink..it is "sturdy, well run and meets a need"...for what it is they do a great job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r361910226-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>361910226</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Great find for UCLA visitors</t>
+  </si>
+  <si>
+    <t>The Guest House is just that - a warm, inviting, well-maintained and loved house that is open to people attached in some way to UCLA.  We booked a room for 2 but when we added a 3rd person upon arrival, the staff very willingly offered a rollaway bed and extra towels.  The property itself sits immediately across from the UCLA campus entrance and could not be more convenient.  The beds, bedding and other amenities are like a 5 star hotel but it's much more intimate.  Loved the breakfast buffet area and fireplace, the buffet itself and the ambiance.  Every single member of the staff is happy, happy to help you and seems to be happy to be there.  We cannot wait for our next visit.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The Guest House is just that - a warm, inviting, well-maintained and loved house that is open to people attached in some way to UCLA.  We booked a room for 2 but when we added a 3rd person upon arrival, the staff very willingly offered a rollaway bed and extra towels.  The property itself sits immediately across from the UCLA campus entrance and could not be more convenient.  The beds, bedding and other amenities are like a 5 star hotel but it's much more intimate.  Loved the breakfast buffet area and fireplace, the buffet itself and the ambiance.  Every single member of the staff is happy, happy to help you and seems to be happy to be there.  We cannot wait for our next visit.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r361853645-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>361853645</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>The room (#230) is a bit small. I do love the quietness of the hotel. I felt like being home away from home. The breakfast include high quality cold cut meats, cheese, fruits, oatmeal, patries &amp; bread.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The room (#230) is a bit small. I do love the quietness of the hotel. I felt like being home away from home. The breakfast include high quality cold cut meats, cheese, fruits, oatmeal, patries &amp; bread.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r358013177-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>358013177</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Had a great stay ! Highly Recommended</t>
+  </si>
+  <si>
+    <t>I stayed at this guest house for 4 nights in Mid- March when I visited UCLA to attend a conference. Although my host paid for my trip, so I have no idea about the cost of my stay, but my experience at this place was fantastic.The front office staffs were very cooperative and the morning breakfast was superb. They changed our linens everyday. We had a great bathroom with classical hardware fittings all in good shapes. I love the locations. Its in the campus, Powell Library, Royce Hall and Folwer Museum and you name it, all are within walking distance. Thanks to the whole staffs there at UCLA Guest House for my pleasurable stay. Of course, I will highly recommend anybody visiting UCLA to stay at this wonderful place. Hope someday I stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this guest house for 4 nights in Mid- March when I visited UCLA to attend a conference. Although my host paid for my trip, so I have no idea about the cost of my stay, but my experience at this place was fantastic.The front office staffs were very cooperative and the morning breakfast was superb. They changed our linens everyday. We had a great bathroom with classical hardware fittings all in good shapes. I love the locations. Its in the campus, Powell Library, Royce Hall and Folwer Museum and you name it, all are within walking distance. Thanks to the whole staffs there at UCLA Guest House for my pleasurable stay. Of course, I will highly recommend anybody visiting UCLA to stay at this wonderful place. Hope someday I stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r349701012-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>349701012</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Good accommodation on campus</t>
+  </si>
+  <si>
+    <t>This is a great option if you have a need to be at UCLA or environs.  The guesthouse has the feel of a welcoming home.  Breakfast is complementary and good.  Free wifi is included in the room rate.  All staff were extremely friendly, helpful and knowledgable. We didn't have a car but there are plenty of travel options close by including free campus shuttles.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>This is a great option if you have a need to be at UCLA or environs.  The guesthouse has the feel of a welcoming home.  Breakfast is complementary and good.  Free wifi is included in the room rate.  All staff were extremely friendly, helpful and knowledgable. We didn't have a car but there are plenty of travel options close by including free campus shuttles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r348727063-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>348727063</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Hidden and convenient</t>
+  </si>
+  <si>
+    <t>I love this little hotel.  The rooms are small but efficient, the beds are comfortable, and the breakfast and all-day coffee, tea, and fruit make it comfy and welcoming.  UCLA is located near some of the priciest areas in Southern California, and the regular commercial hotels in the area can cost upward of $300/night.  The guest house offers reasonably-priced accommodations right on the campus for those with a need to visit at the University overnight. The rooms are relatively quiet, and. the staff are friendly and helpful.  A great choice at a good price!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>I love this little hotel.  The rooms are small but efficient, the beds are comfortable, and the breakfast and all-day coffee, tea, and fruit make it comfy and welcoming.  UCLA is located near some of the priciest areas in Southern California, and the regular commercial hotels in the area can cost upward of $300/night.  The guest house offers reasonably-priced accommodations right on the campus for those with a need to visit at the University overnight. The rooms are relatively quiet, and. the staff are friendly and helpful.  A great choice at a good price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r334919698-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>334919698</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t>UCLA Parents Weekend - UCLA Guest House</t>
+  </si>
+  <si>
+    <t>My husband and I had a wonderful visit to the UCLA Guest House. We were warmly welcomed by the front staff and Esther gave us extra assistance via telephone with navigation and parking accommodations! It was greatly appreciated after a very long flight to LA. Our room was very comfortable and extremely clean, and the breakfast buffet was satisfying and convenient with coffee and tea to go! The location to the campus cannot be beat, and we enjoyed walking onto campus for all of the parent activities. UCLA does a great job at providing a wide array of activities, presentations, sporting events, and meals to parents and families. Beautiful visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I had a wonderful visit to the UCLA Guest House. We were warmly welcomed by the front staff and Esther gave us extra assistance via telephone with navigation and parking accommodations! It was greatly appreciated after a very long flight to LA. Our room was very comfortable and extremely clean, and the breakfast buffet was satisfying and convenient with coffee and tea to go! The location to the campus cannot be beat, and we enjoyed walking onto campus for all of the parent activities. UCLA does a great job at providing a wide array of activities, presentations, sporting events, and meals to parents and families. Beautiful visit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r331686524-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>331686524</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Campus Visit</t>
+  </si>
+  <si>
+    <t>The hotel location is fantastic, right on the edge of campus, which makes it easy to walk through campus, or get to Brentwood or Beverly Hills.  The staff was highly knowledgeable on the area.  The continental breakfast was simple, but it was a great way to get the day going.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>The hotel location is fantastic, right on the edge of campus, which makes it easy to walk through campus, or get to Brentwood or Beverly Hills.  The staff was highly knowledgeable on the area.  The continental breakfast was simple, but it was a great way to get the day going.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r330717808-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>330717808</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff that fixes everything you need. Nice and comfortable rooms. And the breakfast was better than in many more expensive hotels: good selection of nice foods, well presented and arranged. Recommended especially for visitors to the UCLA, as it is basically at the campus. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff that fixes everything you need. Nice and comfortable rooms. And the breakfast was better than in many more expensive hotels: good selection of nice foods, well presented and arranged. Recommended especially for visitors to the UCLA, as it is basically at the campus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r326181103-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>326181103</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>If visiting UCLA...you don't have to look for a better place.</t>
+  </si>
+  <si>
+    <t>We stayed at the UCLA guest house for 8 nights. I must say that my prime reason for choosing this hotel was because it sat right on the edge of the campus. We were going to drop my son and wanted a place near the the UCLA campus. I need not have worried as UCLA guest house came out tops in all other departments too:Rooms: we stayed in room 100. It was cozy and clean with a micro, refrigerator and coffee maker provided for.Service: Excellent...people were always ready to help you with a smile. The lady at the reception also waived off the extra bed charges when my son came to stay with us for 2 nights after the orientation.Location: unbeatable for UCLA and you are right next to Beverly Hills!!!!. Westwood village is 10 minutes away which is a great place for food and long walks.Food: Only breakfast is served which is limited but quite tasty and healthy. No provision for eggs made to order like omelette and half fried, which would have given some respite from the repetitive menu. Also the breakfast area is rather small and sometimes difficult to find a seating place. Coffee and hot chocolate is available 24/7 Overall a great experience. Will definitely be staying here whenever I visit LA again..MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded November 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the UCLA guest house for 8 nights. I must say that my prime reason for choosing this hotel was because it sat right on the edge of the campus. We were going to drop my son and wanted a place near the the UCLA campus. I need not have worried as UCLA guest house came out tops in all other departments too:Rooms: we stayed in room 100. It was cozy and clean with a micro, refrigerator and coffee maker provided for.Service: Excellent...people were always ready to help you with a smile. The lady at the reception also waived off the extra bed charges when my son came to stay with us for 2 nights after the orientation.Location: unbeatable for UCLA and you are right next to Beverly Hills!!!!. Westwood village is 10 minutes away which is a great place for food and long walks.Food: Only breakfast is served which is limited but quite tasty and healthy. No provision for eggs made to order like omelette and half fried, which would have given some respite from the repetitive menu. Also the breakfast area is rather small and sometimes difficult to find a seating place. Coffee and hot chocolate is available 24/7 Overall a great experience. Will definitely be staying here whenever I visit LA again..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r315660180-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>315660180</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>The Staff and atmosphere</t>
+  </si>
+  <si>
+    <t>The UCLA guest house is a convenient hotel to stay when you are a parent of a UCLA student as it is walking distance to the university administration, colleges and the dorms.  I took my daughter there early September and stayed at the hotel for a total of 12 nights split in two visits.  The friendly atmosphere and extremely helpful and welcoming front desk staff made it possible to maintain and extend my stay the two times with smiles and consideration to my special situation, which made me feel special and part of a family away from home. They all went the extra mile to accommodate my needs and extensions even though they were mostly fully booked during this busy month at camps.
+The single room is quite cozy, adequate size, clean and comfortable. The two beds room is as nice. However, I would recommend a kettle and micro fridge in the rooms.
+The breakfast buffet is adequate with various choices of healthy and nutritious food, along with the convenient complementary hot beverage 24/7 counter of selection of teas, coffee and hot chocolate. I would recommend though adding more chairs and access to the outdoors seating for breakfast.
+I had a nice friendly accommodation at a stressful time of taking my 17years daughter halfway across the world to study at UCLA, the overwhelming experience and the inevitable separation from my eldest child.  The lovely staff promised to look over her...The UCLA guest house is a convenient hotel to stay when you are a parent of a UCLA student as it is walking distance to the university administration, colleges and the dorms.  I took my daughter there early September and stayed at the hotel for a total of 12 nights split in two visits.  The friendly atmosphere and extremely helpful and welcoming front desk staff made it possible to maintain and extend my stay the two times with smiles and consideration to my special situation, which made me feel special and part of a family away from home. They all went the extra mile to accommodate my needs and extensions even though they were mostly fully booked during this busy month at camps.The single room is quite cozy, adequate size, clean and comfortable. The two beds room is as nice. However, I would recommend a kettle and micro fridge in the rooms.The breakfast buffet is adequate with various choices of healthy and nutritious food, along with the convenient complementary hot beverage 24/7 counter of selection of teas, coffee and hot chocolate. I would recommend though adding more chairs and access to the outdoors seating for breakfast.I had a nice friendly accommodation at a stressful time of taking my 17years daughter halfway across the world to study at UCLA, the overwhelming experience and the inevitable separation from my eldest child.  The lovely staff promised to look over her and invited her to visit and use the lounge to study which made me comfortable that she can see a friendly face when I travelled home.It was a lovely experience despite my situation.  I would highly recommend the UCLA guest house to anyone who has a business to attend to or when dropping children to study there.  Most pleasant and most convenient with access to various leisure venues close by as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>The UCLA guest house is a convenient hotel to stay when you are a parent of a UCLA student as it is walking distance to the university administration, colleges and the dorms.  I took my daughter there early September and stayed at the hotel for a total of 12 nights split in two visits.  The friendly atmosphere and extremely helpful and welcoming front desk staff made it possible to maintain and extend my stay the two times with smiles and consideration to my special situation, which made me feel special and part of a family away from home. They all went the extra mile to accommodate my needs and extensions even though they were mostly fully booked during this busy month at camps.
+The single room is quite cozy, adequate size, clean and comfortable. The two beds room is as nice. However, I would recommend a kettle and micro fridge in the rooms.
+The breakfast buffet is adequate with various choices of healthy and nutritious food, along with the convenient complementary hot beverage 24/7 counter of selection of teas, coffee and hot chocolate. I would recommend though adding more chairs and access to the outdoors seating for breakfast.
+I had a nice friendly accommodation at a stressful time of taking my 17years daughter halfway across the world to study at UCLA, the overwhelming experience and the inevitable separation from my eldest child.  The lovely staff promised to look over her...The UCLA guest house is a convenient hotel to stay when you are a parent of a UCLA student as it is walking distance to the university administration, colleges and the dorms.  I took my daughter there early September and stayed at the hotel for a total of 12 nights split in two visits.  The friendly atmosphere and extremely helpful and welcoming front desk staff made it possible to maintain and extend my stay the two times with smiles and consideration to my special situation, which made me feel special and part of a family away from home. They all went the extra mile to accommodate my needs and extensions even though they were mostly fully booked during this busy month at camps.The single room is quite cozy, adequate size, clean and comfortable. The two beds room is as nice. However, I would recommend a kettle and micro fridge in the rooms.The breakfast buffet is adequate with various choices of healthy and nutritious food, along with the convenient complementary hot beverage 24/7 counter of selection of teas, coffee and hot chocolate. I would recommend though adding more chairs and access to the outdoors seating for breakfast.I had a nice friendly accommodation at a stressful time of taking my 17years daughter halfway across the world to study at UCLA, the overwhelming experience and the inevitable separation from my eldest child.  The lovely staff promised to look over her and invited her to visit and use the lounge to study which made me comfortable that she can see a friendly face when I travelled home.It was a lovely experience despite my situation.  I would highly recommend the UCLA guest house to anyone who has a business to attend to or when dropping children to study there.  Most pleasant and most convenient with access to various leisure venues close by as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r306477908-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>306477908</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel with good breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is ideal for collaborations or business in the UCLA campus area, since it is in walking distance from many points of interest in the campus. This is very convenient if you don't have a car, I came from the airport with a shuttle ($17) and left with an Uber. The rooms are the right size, with comfortable beds and pillows. The breakfast is varied and good, with meats, cheeses, fruits..etc. They could use more tables in the breakfast area and it would be very nice if they could arrange outside seating, since there is a patio right there that seems unused. The reception is very receptive to requests. My only issue was with a vague musty smell in my room, probably coming from the older furniture. The hotel seems older and I did not notice upgrades. There are two rooms right next to the elevator that you might want to avoid, if possible, due to the air conditioning unit (for the whole floor) being next to them. These are also facing the street/hotel entrance where people may hang around and chat (probably it doesn't happen often).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is ideal for collaborations or business in the UCLA campus area, since it is in walking distance from many points of interest in the campus. This is very convenient if you don't have a car, I came from the airport with a shuttle ($17) and left with an Uber. The rooms are the right size, with comfortable beds and pillows. The breakfast is varied and good, with meats, cheeses, fruits..etc. They could use more tables in the breakfast area and it would be very nice if they could arrange outside seating, since there is a patio right there that seems unused. The reception is very receptive to requests. My only issue was with a vague musty smell in my room, probably coming from the older furniture. The hotel seems older and I did not notice upgrades. There are two rooms right next to the elevator that you might want to avoid, if possible, due to the air conditioning unit (for the whole floor) being next to them. These are also facing the street/hotel entrance where people may hang around and chat (probably it doesn't happen often).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r286518880-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>286518880</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Covered parking, cont. bkfst., excellent rooms in Beverly Hills</t>
+  </si>
+  <si>
+    <t>Close to Beverly Hills at an affordable price is this jewel of a hotel with great customer service.  They especially cater to those who are using the hospital in Westwood.  The front desk staff want you to enjoy the area and work hard to provide lots of tips and info.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Close to Beverly Hills at an affordable price is this jewel of a hotel with great customer service.  They especially cater to those who are using the hospital in Westwood.  The front desk staff want you to enjoy the area and work hard to provide lots of tips and info.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r274698621-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>274698621</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Useful for UCLA</t>
+  </si>
+  <si>
+    <t>The UCLA Guesthouse is right on the northeast edge of campus. The rooms are generously sized, though they can be kind of dark. Perhaps that's a response to the endless California sun. We've stayed there twice now, both times for business on campus. It is very convenient for that, and makes for a very comfortable sty. Breakfast offers a very wide choice, with lots of fruit and good bread and bagel choices. Breakfast is served in the lobby, and can get busy if you come at the peak time. Other than that, the guesthouse offers a very classy service. It is a 20 minute walk down to Westwood for serious eating options, though there are UCLA catering options very close if you don't care for that.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>The UCLA Guesthouse is right on the northeast edge of campus. The rooms are generously sized, though they can be kind of dark. Perhaps that's a response to the endless California sun. We've stayed there twice now, both times for business on campus. It is very convenient for that, and makes for a very comfortable sty. Breakfast offers a very wide choice, with lots of fruit and good bread and bagel choices. Breakfast is served in the lobby, and can get busy if you come at the peak time. Other than that, the guesthouse offers a very classy service. It is a 20 minute walk down to Westwood for serious eating options, though there are UCLA catering options very close if you don't care for that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r267428999-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>267428999</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Best Value for the Money</t>
+  </si>
+  <si>
+    <t>Excellent friendly and efficient staff.  Rooms comfortable and clean.  Access to UCLA transportation is but only 100 ft away.  Breakfast buffet is the tops- Fresh and plentifulIf you can qualify and need a great place to stay, the UCLA Guest House is above the rest within the neighborhood.  I know I will.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Excellent friendly and efficient staff.  Rooms comfortable and clean.  Access to UCLA transportation is but only 100 ft away.  Breakfast buffet is the tops- Fresh and plentifulIf you can qualify and need a great place to stay, the UCLA Guest House is above the rest within the neighborhood.  I know I will.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r251849343-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>251849343</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>Great find for the area</t>
+  </si>
+  <si>
+    <t>Given the difficulty of finding anything decent for under $200 in that area, the Guest House is a gem. Even the regular chains are bad or very expensive. Guest House rooms are clean, and sufficient. The breakfast is very good for that level of hotel. Parking is safe. It's where I stay when in that area of the West end. Some level of affiliation with the UC system is required, although doesn't seem to be strictly confirmed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Given the difficulty of finding anything decent for under $200 in that area, the Guest House is a gem. Even the regular chains are bad or very expensive. Guest House rooms are clean, and sufficient. The breakfast is very good for that level of hotel. Parking is safe. It's where I stay when in that area of the West end. Some level of affiliation with the UC system is required, although doesn't seem to be strictly confirmed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r250818553-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>250818553</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Right on campus</t>
+  </si>
+  <si>
+    <t>I'm a UCLA alum and stay at the UCLA Guest House whenever I'm back on campus for business.  I've stayed there about four times in the last few years. For those familiar with the area, it's right behind the public policy building/LuValle commons, and I love being able to walk out the door and be right on campus in seconds.  The rooms are small, but comfortable, and there's a lovely big sitting area behind the lobby where you can get free breakfast, coffee/tea anytime, and relax or do work if you like.  Breakfast is a fantastic spread -- all cold items, but including lunch meat if you want your proteins. If you're not planning to drive (I don't), just be aware that it's about a 20 minute walk to Westwood Village, though you can also walk a few minutes to take the campus bus, or a few blocks to the Hilgard Terminal (where many buses end/start their routes).  You can also pretty much get anything you need at one of the campus stores as well, and there are ample campus restaurants (including the Wolfgang Pucks in Ackerman).There are no hotel taxes or other fees, so (unlike other hotels) the amazing sticker price you see listed is actually what you pay in the end.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>I'm a UCLA alum and stay at the UCLA Guest House whenever I'm back on campus for business.  I've stayed there about four times in the last few years. For those familiar with the area, it's right behind the public policy building/LuValle commons, and I love being able to walk out the door and be right on campus in seconds.  The rooms are small, but comfortable, and there's a lovely big sitting area behind the lobby where you can get free breakfast, coffee/tea anytime, and relax or do work if you like.  Breakfast is a fantastic spread -- all cold items, but including lunch meat if you want your proteins. If you're not planning to drive (I don't), just be aware that it's about a 20 minute walk to Westwood Village, though you can also walk a few minutes to take the campus bus, or a few blocks to the Hilgard Terminal (where many buses end/start their routes).  You can also pretty much get anything you need at one of the campus stores as well, and there are ample campus restaurants (including the Wolfgang Pucks in Ackerman).There are no hotel taxes or other fees, so (unlike other hotels) the amazing sticker price you see listed is actually what you pay in the end.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r250508150-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>250508150</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Great stay for incoming student</t>
+  </si>
+  <si>
+    <t>We had a great room and stay while our son was looking at UCLA. USC was a 20 minute car ride and it was the perfect spot to use as a hub. Plentiful, interesting breakfast items. Cold meat and cheese, lots of carb options, cereals and more. Room was small for three (needed a cot for my son) but we made it work. Nice and clean. Very friendly, helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We had a great room and stay while our son was looking at UCLA. USC was a 20 minute car ride and it was the perfect spot to use as a hub. Plentiful, interesting breakfast items. Cold meat and cheese, lots of carb options, cereals and more. Room was small for three (needed a cot for my son) but we made it work. Nice and clean. Very friendly, helpful staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r240217873-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>240217873</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Motel amenities on the UCLA campus</t>
+  </si>
+  <si>
+    <t>Nobody accuses the UCLA guest House of being luxurious.  The property has exceedingly modest ambitions and for the most part achieves them.  The goal is to offer the comfort and most of the amenities of a midrange motel chain but on the UCLA campus.  My room (on the 3rd floor) was serviceable, if noisy.  The bed was comfortable enough and the shower worked well.  The hall had an unpleasant smell and the bedspread did not appear to have been washed or cleaned recently, but neither is terribly unusual.  If I were paying my own way, I would stay somewhere else, but since the University was picking up my tab, the guest house was a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Nobody accuses the UCLA guest House of being luxurious.  The property has exceedingly modest ambitions and for the most part achieves them.  The goal is to offer the comfort and most of the amenities of a midrange motel chain but on the UCLA campus.  My room (on the 3rd floor) was serviceable, if noisy.  The bed was comfortable enough and the shower worked well.  The hall had an unpleasant smell and the bedspread did not appear to have been washed or cleaned recently, but neither is terribly unusual.  If I were paying my own way, I would stay somewhere else, but since the University was picking up my tab, the guest house was a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r236126639-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>236126639</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Convenient for Westwood</t>
+  </si>
+  <si>
+    <t>For second time this was the best deal we got near Westwood.  It has an "inn-ish" feeling to it.  The staff is nice.  If you are lucky you get complimentary parking.  If not you have to park about 300 yards away and pay for the night and then wake up real early to make sure you do not get a UCLA ticket.  It is quiet by night and during the day you see the students and staffers go their way in this large urban university.  They have courtesy internet and a fairly good continental breakfast and day round coffee and tea as a compliment.  The rooms are rather small and not really soundproof, yet they are clean and adequate.  I would stay here again if the price is right.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>For second time this was the best deal we got near Westwood.  It has an "inn-ish" feeling to it.  The staff is nice.  If you are lucky you get complimentary parking.  If not you have to park about 300 yards away and pay for the night and then wake up real early to make sure you do not get a UCLA ticket.  It is quiet by night and during the day you see the students and staffers go their way in this large urban university.  They have courtesy internet and a fairly good continental breakfast and day round coffee and tea as a compliment.  The rooms are rather small and not really soundproof, yet they are clean and adequate.  I would stay here again if the price is right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r234739240-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>234739240</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>campus heaven</t>
+  </si>
+  <si>
+    <t>Being in UCLA guest house is a great experience. Not only is it close to the facilities, but the guest house is also cozy and commodious. Being in the guest house definitely help me to be more motivated in order to be a Bruin.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Being in UCLA guest house is a great experience. Not only is it close to the facilities, but the guest house is also cozy and commodious. Being in the guest house definitely help me to be more motivated in order to be a Bruin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r215451709-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>215451709</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>First rate guest house on UCLA campus</t>
+  </si>
+  <si>
+    <t>We stayed at the Guest House this past June for a conference going on at UCLA. I was immediately impressed by the great decor in the Guest House, it's layout, and location on campus. My room was very comfortable, included all useful amenities, and had a cozy bed. It was also quiet for great sleeping! The breakfast in the morning was hands down awesome! Each day there were great cheeses, meats, salmon, pastries, and a espresso machine where one could make their own coffee drink. The staff were great and very helpful. Finally, it's location on campus allowed for easy access to anyplace on campus, and was the starting point for scenic runs in the morning. Even if I wasn't at UCLA for any reason, I would still love staying at the Guest House again for a trip to the LA area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the Guest House this past June for a conference going on at UCLA. I was immediately impressed by the great decor in the Guest House, it's layout, and location on campus. My room was very comfortable, included all useful amenities, and had a cozy bed. It was also quiet for great sleeping! The breakfast in the morning was hands down awesome! Each day there were great cheeses, meats, salmon, pastries, and a espresso machine where one could make their own coffee drink. The staff were great and very helpful. Finally, it's location on campus allowed for easy access to anyplace on campus, and was the starting point for scenic runs in the morning. Even if I wasn't at UCLA for any reason, I would still love staying at the Guest House again for a trip to the LA area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r214157757-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>214157757</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Another fabulous stay</t>
+  </si>
+  <si>
+    <t>Beautiful updated rooms right on the edge of campus on Hilgard.  Comfy bed, a fabulous hairdryer, great shampoo/conditioner too. I will not bother packing those items on future trips.  Granite countertops and new furnishings.  Some rooms have microwaves and refrigerators.  This trip I saw that there is actually a pay washer and dryer available for use too with vending size detergent etc. Continental breakfast served from 6:30 am to 9:30 am daily.  Coffee, teas, and hot cocoa available 24 hours a day.  Close to the sorority houses and to Sunset Blvd. and easy parking.  Easy access to Beverly Hills, Westwood, Bel Air and Hollywood.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful updated rooms right on the edge of campus on Hilgard.  Comfy bed, a fabulous hairdryer, great shampoo/conditioner too. I will not bother packing those items on future trips.  Granite countertops and new furnishings.  Some rooms have microwaves and refrigerators.  This trip I saw that there is actually a pay washer and dryer available for use too with vending size detergent etc. Continental breakfast served from 6:30 am to 9:30 am daily.  Coffee, teas, and hot cocoa available 24 hours a day.  Close to the sorority houses and to Sunset Blvd. and easy parking.  Easy access to Beverly Hills, Westwood, Bel Air and Hollywood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r207184084-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>207184084</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly quaint!</t>
+  </si>
+  <si>
+    <t>UCLA runs this guest house, so I never expected something so quaint and serene.  The staff was amazingly nice, and the rooms were comfortable.  Well, except for the beds which were rock hard and not very relaxing.  The free breakfast was one of the best I have seen outside of Europe, so good job!  The breakfast room needs more seating to accommodate all the people who are eating there.  Also, there isn't enough parking for all the guests, and there is a bit of complicated business to get a parking permit for another campus lot… very confusing.  Overall, I was very pleased for the price paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Joseph R, General Manager at UCLA Guest House, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2014</t>
+  </si>
+  <si>
+    <t>UCLA runs this guest house, so I never expected something so quaint and serene.  The staff was amazingly nice, and the rooms were comfortable.  Well, except for the beds which were rock hard and not very relaxing.  The free breakfast was one of the best I have seen outside of Europe, so good job!  The breakfast room needs more seating to accommodate all the people who are eating there.  Also, there isn't enough parking for all the guests, and there is a bit of complicated business to get a parking permit for another campus lot… very confusing.  Overall, I was very pleased for the price paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r203717008-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>203717008</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent effort</t>
+  </si>
+  <si>
+    <t>Especially in the Big City LA market this is an excellent value. We were in LA for an on-campus wedding so it was exceptionally convenient. Very friendly staff... If you're lucky and on a space available basis even parking is free. Kudos all around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Especially in the Big City LA market this is an excellent value. We were in LA for an on-campus wedding so it was exceptionally convenient. Very friendly staff... If you're lucky and on a space available basis even parking is free. Kudos all around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r201488689-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>201488689</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>This place is unique in that it's not really a hotel, but rather a guest house.  However, I've stayed at 5 star hotels and was never treated as well there as I was by the staff here.  From the moment we checked in (early, as our room was ready), to the moment we left, every single employee said hello, asked us how we were doing and seemed genuinely happy to work there.  When we arrived, the housekeeping staff had just finished scrubbing the parking garage floor!  It was clean and fresh.  The rest of the hotel was equally clean and fresh. The housekeeping staff obviously takes a lot of pride in what they do.  The front desk staff was busy but acknowledged us and was courteous and professional, despite having multiple phones ringing and people pulling their attention in multiple directions.   The room was not large but was clean, fresh and well appointed.  The beds, pillows and linens were very comfortable and the room was quiet, despite the hotel being full and the location being in a busy traffic area.  The grounds are well planted and very nice.  A good aesthetic to the building, main areas and grounds.  All the walls are lined with historic photos of UCLA and the Westwood area. 
+The only small issue w had was that the trash truck came early and was loud, but we had to wake up anyway.  
+Breakfast was continental in nature...This place is unique in that it's not really a hotel, but rather a guest house.  However, I've stayed at 5 star hotels and was never treated as well there as I was by the staff here.  From the moment we checked in (early, as our room was ready), to the moment we left, every single employee said hello, asked us how we were doing and seemed genuinely happy to work there.  When we arrived, the housekeeping staff had just finished scrubbing the parking garage floor!  It was clean and fresh.  The rest of the hotel was equally clean and fresh. The housekeeping staff obviously takes a lot of pride in what they do.  The front desk staff was busy but acknowledged us and was courteous and professional, despite having multiple phones ringing and people pulling their attention in multiple directions.   The room was not large but was clean, fresh and well appointed.  The beds, pillows and linens were very comfortable and the room was quiet, despite the hotel being full and the location being in a busy traffic area.  The grounds are well planted and very nice.  A good aesthetic to the building, main areas and grounds.  All the walls are lined with historic photos of UCLA and the Westwood area. The only small issue w had was that the trash truck came early and was loud, but we had to wake up anyway.  Breakfast was continental in nature and had a mix of things from fruit and breads to prosciutto, pickles and hard boiled eggs.  Assorted juices, coffee, etc.  All seemed fresh.  Won't do for big eaters, but is a find way to get a nice start to the day.  Breakfast area is bright and pleasant.  If you want more to eat, there is a student commons just across the street with a grill, deli, barista, etc. as well as a small convenience store.If you're visiting UCLA this is the best place to stay.  It was a quiet, cool spot to return to, after walking all over a hot, busy, crowded campus.   As we were leaving early the next morning, the housekeeping staff was arriving for their work day.  As we pulled out of the (clean) garage, they were gathering there for stretching and light calisthenics so they could take on their tasks for the day.  No wonder they do such a good job!  My hat's off to this well run establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph R, Manager at UCLA Guest House, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>This place is unique in that it's not really a hotel, but rather a guest house.  However, I've stayed at 5 star hotels and was never treated as well there as I was by the staff here.  From the moment we checked in (early, as our room was ready), to the moment we left, every single employee said hello, asked us how we were doing and seemed genuinely happy to work there.  When we arrived, the housekeeping staff had just finished scrubbing the parking garage floor!  It was clean and fresh.  The rest of the hotel was equally clean and fresh. The housekeeping staff obviously takes a lot of pride in what they do.  The front desk staff was busy but acknowledged us and was courteous and professional, despite having multiple phones ringing and people pulling their attention in multiple directions.   The room was not large but was clean, fresh and well appointed.  The beds, pillows and linens were very comfortable and the room was quiet, despite the hotel being full and the location being in a busy traffic area.  The grounds are well planted and very nice.  A good aesthetic to the building, main areas and grounds.  All the walls are lined with historic photos of UCLA and the Westwood area. 
+The only small issue w had was that the trash truck came early and was loud, but we had to wake up anyway.  
+Breakfast was continental in nature...This place is unique in that it's not really a hotel, but rather a guest house.  However, I've stayed at 5 star hotels and was never treated as well there as I was by the staff here.  From the moment we checked in (early, as our room was ready), to the moment we left, every single employee said hello, asked us how we were doing and seemed genuinely happy to work there.  When we arrived, the housekeeping staff had just finished scrubbing the parking garage floor!  It was clean and fresh.  The rest of the hotel was equally clean and fresh. The housekeeping staff obviously takes a lot of pride in what they do.  The front desk staff was busy but acknowledged us and was courteous and professional, despite having multiple phones ringing and people pulling their attention in multiple directions.   The room was not large but was clean, fresh and well appointed.  The beds, pillows and linens were very comfortable and the room was quiet, despite the hotel being full and the location being in a busy traffic area.  The grounds are well planted and very nice.  A good aesthetic to the building, main areas and grounds.  All the walls are lined with historic photos of UCLA and the Westwood area. The only small issue w had was that the trash truck came early and was loud, but we had to wake up anyway.  Breakfast was continental in nature and had a mix of things from fruit and breads to prosciutto, pickles and hard boiled eggs.  Assorted juices, coffee, etc.  All seemed fresh.  Won't do for big eaters, but is a find way to get a nice start to the day.  Breakfast area is bright and pleasant.  If you want more to eat, there is a student commons just across the street with a grill, deli, barista, etc. as well as a small convenience store.If you're visiting UCLA this is the best place to stay.  It was a quiet, cool spot to return to, after walking all over a hot, busy, crowded campus.   As we were leaving early the next morning, the housekeeping staff was arriving for their work day.  As we pulled out of the (clean) garage, they were gathering there for stretching and light calisthenics so they could take on their tasks for the day.  No wonder they do such a good job!  My hat's off to this well run establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r200817617-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>200817617</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Very convenient to campus</t>
+  </si>
+  <si>
+    <t>This hotel is for those with business at UCLA. It is walking distance to most of campus so you can leave your car in the guesthouse parking.  The breakfast was mostly breads of different kinds and some fruit, and there was not much seating so that was just ok. The rooms are small with old style bathrooms, but it was functional and clean. Basically, if you want amenities look elsewhere, but if you want to be on campus it is very convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is for those with business at UCLA. It is walking distance to most of campus so you can leave your car in the guesthouse parking.  The breakfast was mostly breads of different kinds and some fruit, and there was not much seating so that was just ok. The rooms are small with old style bathrooms, but it was functional and clean. Basically, if you want amenities look elsewhere, but if you want to be on campus it is very convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r187924109-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>187924109</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Charming and Comfortable</t>
+  </si>
+  <si>
+    <t>This is perfect  for a short stay. Comfortable, clean and quiet. I liked it as a place to attend a play my daughter was in. The rate is reasonable and there is coffee and tea available all the time. Be prepared to have dinner out and scope out places to drive to. Not much in walking distance on a weekend. The bed was comfortable and it was plenty of room for me. I met up with a friend in their common area and we were very comfortable the area near the fireplace. The staff was friendly and helpful. I'd choose this place over the hotels I have stayed in near campus if there is space available.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>This is perfect  for a short stay. Comfortable, clean and quiet. I liked it as a place to attend a play my daughter was in. The rate is reasonable and there is coffee and tea available all the time. Be prepared to have dinner out and scope out places to drive to. Not much in walking distance on a weekend. The bed was comfortable and it was plenty of room for me. I met up with a friend in their common area and we were very comfortable the area near the fireplace. The staff was friendly and helpful. I'd choose this place over the hotels I have stayed in near campus if there is space available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r185161680-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185161680</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Imagine Faulty Towers Without John Cleese</t>
+  </si>
+  <si>
+    <t>Imagine Faulty Towers without the John Cleese character and that’s my impression of the UCLA Guest House after a recent 10-night stay.  The furniture and décor are dated – about 1950’s, and most of the staff seem to date back then as well.  But a most pleasant staff that one gets to know and soon there is more than a feeling of being a guest but of being almost family.  The guests are almost exclusively there because of UCLA – they are parents of students, or visiting campus with their high school kid, or they are a guest of one department or another at UCLA.
+Front desk, not so.  Here a mixed bag of student employees and part-timers who vary from professionally helpful to blasé and occasionally indifferent.  And here are some helpful hints, not provided at check-in or in the info book in your room:  UCLA campus is big and hilly and you are on the extreme north east corner of the campus and adjacent to a very up scale residential area.  Westwood, the nearest shopping/restaurant area is on the extreme south east of the campus.  And taxicabs want your first-born.  Buses are ubiquitous but confusing.  And although you may receive a list of Westwood restaurants when you check in and although the counter can quickly summon a cab, you may not know how easy it is to take a bus, or that the campus bus is free and...Imagine Faulty Towers without the John Cleese character and that’s my impression of the UCLA Guest House after a recent 10-night stay.  The furniture and décor are dated – about 1950’s, and most of the staff seem to date back then as well.  But a most pleasant staff that one gets to know and soon there is more than a feeling of being a guest but of being almost family.  The guests are almost exclusively there because of UCLA – they are parents of students, or visiting campus with their high school kid, or they are a guest of one department or another at UCLA.Front desk, not so.  Here a mixed bag of student employees and part-timers who vary from professionally helpful to blasé and occasionally indifferent.  And here are some helpful hints, not provided at check-in or in the info book in your room:  UCLA campus is big and hilly and you are on the extreme north east corner of the campus and adjacent to a very up scale residential area.  Westwood, the nearest shopping/restaurant area is on the extreme south east of the campus.  And taxicabs want your first-born.  Buses are ubiquitous but confusing.  And although you may receive a list of Westwood restaurants when you check in and although the counter can quickly summon a cab, you may not know how easy it is to take a bus, or that the campus bus is free and available to you, or that there is a student eatery just across the street and out of sight.I’d describe the rooms with the Dutch word gezellig, which roughly translates as cozy.  Smallish rooms, high-end linens, tub with shower curtain, no mini bar.  There is a sad vending machine on the second floor, also an ice machine, and a gleaming washer and dryer.  I suggest a room on the second room and in front.  I was temporarily moved to a first floor room (with mini fridge and microwave) but the wall was vibrating so much, even to the touch, from a water pump behind the wall that I was moved a second time.  And there is no pool.But there is breakfast – nothing fancy but one of the freshest and most appealing breakfast buffets I’ve ever experienced.  From the layers of California fresh fruits, to smoked salmon, and cuts of chicken, beef, and ham, to wonderful cheeses, and perhaps the best, some of the most delicious muffins, breads, and even bagels.  The seating is very casual with only three small tables and some side seats, you may find yourself sitting with a visiting lecturer on library science from Paris or a Polish professor from Kraków who is here to give a lecture at the Getty Villa on the Cyrus Cylinder – as I did.  Get down early as breakfast starts at 6:30 and soon after gets a bit unraveled.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Imagine Faulty Towers without the John Cleese character and that’s my impression of the UCLA Guest House after a recent 10-night stay.  The furniture and décor are dated – about 1950’s, and most of the staff seem to date back then as well.  But a most pleasant staff that one gets to know and soon there is more than a feeling of being a guest but of being almost family.  The guests are almost exclusively there because of UCLA – they are parents of students, or visiting campus with their high school kid, or they are a guest of one department or another at UCLA.
+Front desk, not so.  Here a mixed bag of student employees and part-timers who vary from professionally helpful to blasé and occasionally indifferent.  And here are some helpful hints, not provided at check-in or in the info book in your room:  UCLA campus is big and hilly and you are on the extreme north east corner of the campus and adjacent to a very up scale residential area.  Westwood, the nearest shopping/restaurant area is on the extreme south east of the campus.  And taxicabs want your first-born.  Buses are ubiquitous but confusing.  And although you may receive a list of Westwood restaurants when you check in and although the counter can quickly summon a cab, you may not know how easy it is to take a bus, or that the campus bus is free and...Imagine Faulty Towers without the John Cleese character and that’s my impression of the UCLA Guest House after a recent 10-night stay.  The furniture and décor are dated – about 1950’s, and most of the staff seem to date back then as well.  But a most pleasant staff that one gets to know and soon there is more than a feeling of being a guest but of being almost family.  The guests are almost exclusively there because of UCLA – they are parents of students, or visiting campus with their high school kid, or they are a guest of one department or another at UCLA.Front desk, not so.  Here a mixed bag of student employees and part-timers who vary from professionally helpful to blasé and occasionally indifferent.  And here are some helpful hints, not provided at check-in or in the info book in your room:  UCLA campus is big and hilly and you are on the extreme north east corner of the campus and adjacent to a very up scale residential area.  Westwood, the nearest shopping/restaurant area is on the extreme south east of the campus.  And taxicabs want your first-born.  Buses are ubiquitous but confusing.  And although you may receive a list of Westwood restaurants when you check in and although the counter can quickly summon a cab, you may not know how easy it is to take a bus, or that the campus bus is free and available to you, or that there is a student eatery just across the street and out of sight.I’d describe the rooms with the Dutch word gezellig, which roughly translates as cozy.  Smallish rooms, high-end linens, tub with shower curtain, no mini bar.  There is a sad vending machine on the second floor, also an ice machine, and a gleaming washer and dryer.  I suggest a room on the second room and in front.  I was temporarily moved to a first floor room (with mini fridge and microwave) but the wall was vibrating so much, even to the touch, from a water pump behind the wall that I was moved a second time.  And there is no pool.But there is breakfast – nothing fancy but one of the freshest and most appealing breakfast buffets I’ve ever experienced.  From the layers of California fresh fruits, to smoked salmon, and cuts of chicken, beef, and ham, to wonderful cheeses, and perhaps the best, some of the most delicious muffins, breads, and even bagels.  The seating is very casual with only three small tables and some side seats, you may find yourself sitting with a visiting lecturer on library science from Paris or a Polish professor from Kraków who is here to give a lecture at the Getty Villa on the Cyrus Cylinder – as I did.  Get down early as breakfast starts at 6:30 and soon after gets a bit unraveled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r180081746-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>180081746</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>This is a Guest House.. Not a Hotel</t>
+  </si>
+  <si>
+    <t>Not bad if you need to be near UCLA.  However, this is not a full service hotel.  The front desk is understaffed but the staff is nice.  There is no charge for internet and there is a small business center.  Complimentary breakfast is fine, but the plates are tiny so you have to serve yourself a few times if you want to be full. There is also very limited seating so if you are more than two people you are likely to end up seating with strangers.  Luckily the strangers are generally very nice people.  By the end of the breakfast service the staff of the hotel takes all the food that's left and eats it in front of the guests.  That I found strange.  Service is a bit slow overall and the rooms are very small.  Dont' expect hotel amenities.  Complimentary parking is rather limited.  There is no bell service and the place smells like institutional disinfectant.  Still it is convenient if you are staying only a couple nights and want to be at UCLA.  The staffers start talking early in the morning in the middle of the hall.  For every one who is working there are two just looking around.  That felt strange.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Not bad if you need to be near UCLA.  However, this is not a full service hotel.  The front desk is understaffed but the staff is nice.  There is no charge for internet and there is a small business center.  Complimentary breakfast is fine, but the plates are tiny so you have to serve yourself a few times if you want to be full. There is also very limited seating so if you are more than two people you are likely to end up seating with strangers.  Luckily the strangers are generally very nice people.  By the end of the breakfast service the staff of the hotel takes all the food that's left and eats it in front of the guests.  That I found strange.  Service is a bit slow overall and the rooms are very small.  Dont' expect hotel amenities.  Complimentary parking is rather limited.  There is no bell service and the place smells like institutional disinfectant.  Still it is convenient if you are staying only a couple nights and want to be at UCLA.  The staffers start talking early in the morning in the middle of the hall.  For every one who is working there are two just looking around.  That felt strange.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r166778892-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166778892</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Thin Walls: my dad got no sleep here</t>
+  </si>
+  <si>
+    <t>My dad chose to stay here because the location is very convenient if you are attending an event at UCLA.  You just walk out the door and there you are.  However, my poor dad got no sleep here at all because the walls are paper thin and you can hear every cough and conversation of your neighbor.  His neighbors kept him up very late every night and woke him early every morning.  My dad is not fussy so he didn't really mind the shabby decor or the uncomfortable bed.  He did mind the constant noise.  Lastly, he came to breakfast one minute early and just wanted to get a cup of coffee.  He was reprimanded and told that he could not have the coffee until the exact minute breakfast started.  He will not be returning to stay at this "guest house."MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My dad chose to stay here because the location is very convenient if you are attending an event at UCLA.  You just walk out the door and there you are.  However, my poor dad got no sleep here at all because the walls are paper thin and you can hear every cough and conversation of your neighbor.  His neighbors kept him up very late every night and woke him early every morning.  My dad is not fussy so he didn't really mind the shabby decor or the uncomfortable bed.  He did mind the constant noise.  Lastly, he came to breakfast one minute early and just wanted to get a cup of coffee.  He was reprimanded and told that he could not have the coffee until the exact minute breakfast started.  He will not be returning to stay at this "guest house."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r161054177-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161054177</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>I have stayed here twice and love it!  Beautiful room with microwave and fridge. Excellent free breakfast. Great staff. Close to everything and nestled next to a beautiful neighborhood. I will always choose this place when I visit the area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r160493580-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>160493580</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>Super convenient, comfortable &amp; clean!</t>
+  </si>
+  <si>
+    <t>I stay here when I visit UCLA for work &amp; it's very convenient to campus, clean &amp; comfortable. The front desk staff is always friendly &amp; courteous. Nice continental breakfast in the morning. Free WiFi.  An easy "thumbs up!". Decor of rooms a bit dated, but I'm not staying there for the ambiance &amp; it's always very clean.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r142105576-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>142105576</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Great Place ! Exemplary Service</t>
+  </si>
+  <si>
+    <t>Great place to stay when you visit campus as a parent .Cosy and comfortable .  Well maintained rooms and  extremely efficient and cheerful  front desk and very helpful Manager . Great breakfast spread and 24 hour hot coffee . No restaurant and therefore lunch/dinner has to be planned 30 minutes earlier by ordering on phone a takeaway burger/pizza or visiting any of the Westwood restaurants  or even the Ackerman building which has a food outlet till around 9pm except Sunday  for  by well connected campus buses or even a comfortable 20 min walk. Situated on a vast and beautiful campus. As a family,best to reach there direct by taxi/shuttle (usd 50)  from the airport than take a FLYAWAY bus (USD 10 per head ) an a cab (further US 7-10)from there .It is located on the edge of the campus and may seem isolated in a lush green forest atmosphere but is quite well connected .Local transport can be by hiring a ca which is easily organised thru front desk, connecting thru a campus bus or by taking Metro buses  just close by which can take you straight thru Hollywood , Sunset Blvd etc .MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Great place to stay when you visit campus as a parent .Cosy and comfortable .  Well maintained rooms and  extremely efficient and cheerful  front desk and very helpful Manager . Great breakfast spread and 24 hour hot coffee . No restaurant and therefore lunch/dinner has to be planned 30 minutes earlier by ordering on phone a takeaway burger/pizza or visiting any of the Westwood restaurants  or even the Ackerman building which has a food outlet till around 9pm except Sunday  for  by well connected campus buses or even a comfortable 20 min walk. Situated on a vast and beautiful campus. As a family,best to reach there direct by taxi/shuttle (usd 50)  from the airport than take a FLYAWAY bus (USD 10 per head ) an a cab (further US 7-10)from there .It is located on the edge of the campus and may seem isolated in a lush green forest atmosphere but is quite well connected .Local transport can be by hiring a ca which is easily organised thru front desk, connecting thru a campus bus or by taking Metro buses  just close by which can take you straight thru Hollywood , Sunset Blvd etc .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r139410534-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>139410534</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Stayed for New Student Orientation.  Lovely place, good location, comfy rooms, free internet, iPod charger and VERY helpful staff.   Breakfast ample, but only one table, everyone else had to balance their tray on their lap.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r139380195-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>139380195</t>
+  </si>
+  <si>
+    <t>Campus location but no food or bar</t>
+  </si>
+  <si>
+    <t>There is a nice cold breakfast but that is all the food here.  Bring your own teabags because there are only flavored teas at breakfast. You are not near any restaurants although Westwood restaurants will deliver to the hotel.  One vending machine has cookies &amp; chips.  The soda machine was broken.  The free campus shuttle stops here but does not run on weekends.  The beds are comfortable and the decorations were nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r127313228-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127313228</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>Best hotel for a UCLA visit!</t>
+  </si>
+  <si>
+    <t>Don't let the "guesthouse" fool you - this is a proper hotel with wonderful staff, clean rooms, great windows and accents, and a lovely lobby and seating area with couches and a fireplace! I spent a few nights lounging near the fire, reading a book. This area also doubles as the breakfast serving area during the mornings - they have a great spread with cheeses, cereals, fruit, bagels, pastries, coffee, juices and teas. The coffee/tea area is self-serve and stocked all day and night, so you can grab an herbal tea with hot water at bedtime! The office boasts a work table, and a few public computers with printing capabilities. From what I heard through my other colleagues, mine was the best hotel in the UCLA vicinity. The location on campus makes access so easy, and the spot is right near the statue garden, a peaceful outdoor space to relax. I stayed in a regular room, without the kitchenette space, so can't comment on those amenities, but that sounds very attractive for a longer stay. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Don't let the "guesthouse" fool you - this is a proper hotel with wonderful staff, clean rooms, great windows and accents, and a lovely lobby and seating area with couches and a fireplace! I spent a few nights lounging near the fire, reading a book. This area also doubles as the breakfast serving area during the mornings - they have a great spread with cheeses, cereals, fruit, bagels, pastries, coffee, juices and teas. The coffee/tea area is self-serve and stocked all day and night, so you can grab an herbal tea with hot water at bedtime! The office boasts a work table, and a few public computers with printing capabilities. From what I heard through my other colleagues, mine was the best hotel in the UCLA vicinity. The location on campus makes access so easy, and the spot is right near the statue garden, a peaceful outdoor space to relax. I stayed in a regular room, without the kitchenette space, so can't comment on those amenities, but that sounds very attractive for a longer stay. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r127222579-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127222579</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>Exactly what I needed!</t>
+  </si>
+  <si>
+    <t>I stayed here for a week in april for business on campus. I was VERY pleasantly surprised! I had prettylow expectations, and was a little worried upon arrival to the slightly tired and worn lobby and hallways. But the rooms are more modern than the outside, don't be scared off by the outside! 
+The bed is surprisingly really comfy and the room was very dark and relatively quiet at night so slept very well. All the good channels on the tv. Bathroom has aged but all very clean, decent towels which are replaced daily if you'd like. 
+Perfect location, right near bus terminal to downtown/ hollywood, (both met buses), and Santa Monica (big blue buses). Also the UCLA campus bus stops right outside. Staff at reception 24 hours and were always happy to answer questions, even show me the vending machine upstairs which i couldn't find upstairs on my own! They even gave me a list of nearby restaurants which deliver to the hotel which was great when arriving back at the hotel after a long day and wanting to order a pizza.
+Breakfast was simple but again, much better thani expected. Bagels, toast, meats, cheeses, muffins &amp; pastires + coffee/tea/juice. WIFI is also unbeatable, no password required - works well on phone and lap top (including skype video streaming).
+DEFINITELY recommend it if you need to visit campus to visit children/look at the college/for business! 
+Much better than I...I stayed here for a week in april for business on campus. I was VERY pleasantly surprised! I had prettylow expectations, and was a little worried upon arrival to the slightly tired and worn lobby and hallways. But the rooms are more modern than the outside, don't be scared off by the outside! The bed is surprisingly really comfy and the room was very dark and relatively quiet at night so slept very well. All the good channels on the tv. Bathroom has aged but all very clean, decent towels which are replaced daily if you'd like. Perfect location, right near bus terminal to downtown/ hollywood, (both met buses), and Santa Monica (big blue buses). Also the UCLA campus bus stops right outside. Staff at reception 24 hours and were always happy to answer questions, even show me the vending machine upstairs which i couldn't find upstairs on my own! They even gave me a list of nearby restaurants which deliver to the hotel which was great when arriving back at the hotel after a long day and wanting to order a pizza.Breakfast was simple but again, much better thani expected. Bagels, toast, meats, cheeses, muffins &amp; pastires + coffee/tea/juice. WIFI is also unbeatable, no password required - works well on phone and lap top (including skype video streaming).DEFINITELY recommend it if you need to visit campus to visit children/look at the college/for business! Much better than I ever imagined!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for a week in april for business on campus. I was VERY pleasantly surprised! I had prettylow expectations, and was a little worried upon arrival to the slightly tired and worn lobby and hallways. But the rooms are more modern than the outside, don't be scared off by the outside! 
+The bed is surprisingly really comfy and the room was very dark and relatively quiet at night so slept very well. All the good channels on the tv. Bathroom has aged but all very clean, decent towels which are replaced daily if you'd like. 
+Perfect location, right near bus terminal to downtown/ hollywood, (both met buses), and Santa Monica (big blue buses). Also the UCLA campus bus stops right outside. Staff at reception 24 hours and were always happy to answer questions, even show me the vending machine upstairs which i couldn't find upstairs on my own! They even gave me a list of nearby restaurants which deliver to the hotel which was great when arriving back at the hotel after a long day and wanting to order a pizza.
+Breakfast was simple but again, much better thani expected. Bagels, toast, meats, cheeses, muffins &amp; pastires + coffee/tea/juice. WIFI is also unbeatable, no password required - works well on phone and lap top (including skype video streaming).
+DEFINITELY recommend it if you need to visit campus to visit children/look at the college/for business! 
+Much better than I...I stayed here for a week in april for business on campus. I was VERY pleasantly surprised! I had prettylow expectations, and was a little worried upon arrival to the slightly tired and worn lobby and hallways. But the rooms are more modern than the outside, don't be scared off by the outside! The bed is surprisingly really comfy and the room was very dark and relatively quiet at night so slept very well. All the good channels on the tv. Bathroom has aged but all very clean, decent towels which are replaced daily if you'd like. Perfect location, right near bus terminal to downtown/ hollywood, (both met buses), and Santa Monica (big blue buses). Also the UCLA campus bus stops right outside. Staff at reception 24 hours and were always happy to answer questions, even show me the vending machine upstairs which i couldn't find upstairs on my own! They even gave me a list of nearby restaurants which deliver to the hotel which was great when arriving back at the hotel after a long day and wanting to order a pizza.Breakfast was simple but again, much better thani expected. Bagels, toast, meats, cheeses, muffins &amp; pastires + coffee/tea/juice. WIFI is also unbeatable, no password required - works well on phone and lap top (including skype video streaming).DEFINITELY recommend it if you need to visit campus to visit children/look at the college/for business! Much better than I ever imagined!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r120310995-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120310995</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>Surprisingly Very Nice</t>
+  </si>
+  <si>
+    <t>Very simple and clean....rooms are small and simple furnishing but again, clean....they have a very nice continental breakfast with fresh fruit, bagels, muffins, prosciutto, hams, different cheeses, a variety of coffees (cappuchino, expresso, latte, regular coffees as well...they have a fireplace in the dining/sitting area where coffee and teas run freely all day long.  The staff was very pleasant.  We had to stay here for two days and it was better than I thought it would be, being a little guesthouse on campus.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r105188374-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>105188374</t>
+  </si>
+  <si>
+    <t>04/23/2011</t>
+  </si>
+  <si>
+    <t>Best value for business at UCLA</t>
+  </si>
+  <si>
+    <t>The UCLA Guest House fits the bill for those with business on the UCLA campus -- especially suited for poor academics on a budget. During a recent 5-day conference on the UCLA campus, the Guest House was definitely home away from home. The rooms are simple but impeccably clean and comfortable enough. The bath amenities are eco-friendly, which is a nice touch for a campus entity. At ~$148 per night (including taxes), just steps away from my conference's meeting buildings, free wi-fi, free computer access and printing in the business center, and an EXCELLENT breakfast buffet, the Guest House is definitely the best value in Westwood and for anyone visiting UCLA's campus. An added bonus is the common area, which is complete with fireplace and free-flowing coffee and tea.
+Now for the cons: Desk service is spotty. Although my roommate and I had booked a room with two beds months in advance for our conference, we received a room with only one bed. Fortunately, my roommie and I are good friends, otherwise sharing a bed for 5-nights with a semi-stranger would have definitely been a problem. I learned from other conference attendees that the desk also made other gaffes (no rollaway as requested, etc.). I also found that they sometimes give out incomplete information. For instance, connecting to the wi-fi is a bit complicated and requires registration first in the office center, but the woman who checked me in told...The UCLA Guest House fits the bill for those with business on the UCLA campus -- especially suited for poor academics on a budget. During a recent 5-day conference on the UCLA campus, the Guest House was definitely home away from home. The rooms are simple but impeccably clean and comfortable enough. The bath amenities are eco-friendly, which is a nice touch for a campus entity. At ~$148 per night (including taxes), just steps away from my conference's meeting buildings, free wi-fi, free computer access and printing in the business center, and an EXCELLENT breakfast buffet, the Guest House is definitely the best value in Westwood and for anyone visiting UCLA's campus. An added bonus is the common area, which is complete with fireplace and free-flowing coffee and tea.Now for the cons: Desk service is spotty. Although my roommate and I had booked a room with two beds months in advance for our conference, we received a room with only one bed. Fortunately, my roommie and I are good friends, otherwise sharing a bed for 5-nights with a semi-stranger would have definitely been a problem. I learned from other conference attendees that the desk also made other gaffes (no rollaway as requested, etc.). I also found that they sometimes give out incomplete information. For instance, connecting to the wi-fi is a bit complicated and requires registration first in the office center, but the woman who checked me in told me that it was "easy" and all I had to do was login from my own laptop in my room. Not so! Even knowing what to expect service-wise, I will definitely stay at the UCLA Guest House again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>The UCLA Guest House fits the bill for those with business on the UCLA campus -- especially suited for poor academics on a budget. During a recent 5-day conference on the UCLA campus, the Guest House was definitely home away from home. The rooms are simple but impeccably clean and comfortable enough. The bath amenities are eco-friendly, which is a nice touch for a campus entity. At ~$148 per night (including taxes), just steps away from my conference's meeting buildings, free wi-fi, free computer access and printing in the business center, and an EXCELLENT breakfast buffet, the Guest House is definitely the best value in Westwood and for anyone visiting UCLA's campus. An added bonus is the common area, which is complete with fireplace and free-flowing coffee and tea.
+Now for the cons: Desk service is spotty. Although my roommate and I had booked a room with two beds months in advance for our conference, we received a room with only one bed. Fortunately, my roommie and I are good friends, otherwise sharing a bed for 5-nights with a semi-stranger would have definitely been a problem. I learned from other conference attendees that the desk also made other gaffes (no rollaway as requested, etc.). I also found that they sometimes give out incomplete information. For instance, connecting to the wi-fi is a bit complicated and requires registration first in the office center, but the woman who checked me in told...The UCLA Guest House fits the bill for those with business on the UCLA campus -- especially suited for poor academics on a budget. During a recent 5-day conference on the UCLA campus, the Guest House was definitely home away from home. The rooms are simple but impeccably clean and comfortable enough. The bath amenities are eco-friendly, which is a nice touch for a campus entity. At ~$148 per night (including taxes), just steps away from my conference's meeting buildings, free wi-fi, free computer access and printing in the business center, and an EXCELLENT breakfast buffet, the Guest House is definitely the best value in Westwood and for anyone visiting UCLA's campus. An added bonus is the common area, which is complete with fireplace and free-flowing coffee and tea.Now for the cons: Desk service is spotty. Although my roommate and I had booked a room with two beds months in advance for our conference, we received a room with only one bed. Fortunately, my roommie and I are good friends, otherwise sharing a bed for 5-nights with a semi-stranger would have definitely been a problem. I learned from other conference attendees that the desk also made other gaffes (no rollaway as requested, etc.). I also found that they sometimes give out incomplete information. For instance, connecting to the wi-fi is a bit complicated and requires registration first in the office center, but the woman who checked me in told me that it was "easy" and all I had to do was login from my own laptop in my room. Not so! Even knowing what to expect service-wise, I will definitely stay at the UCLA Guest House again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r99122763-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>99122763</t>
+  </si>
+  <si>
+    <t>03/06/2011</t>
+  </si>
+  <si>
+    <t>convenient for ucla visitation</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights during the weekend while visiting our son at UCLA. Upon check in there was a confusion with the room assignment, but they corrected it pretty quickly, just the service, probably provided by the student, wasn't too friendly. Our room was on the third floor. Furniture was very standard. Bed was uncomfortable. Mattresses covered with some plastic or liquid resistant fabric. Bathroom reminded the one in motel 6, with extremely bright lights, very small sink, water not hot enough, no fan, towels worn out grey color. Things we like: windows could be open for fresh air; nice flat screen tv, free wi-fi; good breakfast with real espresso machine; nice fire place in the lobby, perfect location for UCLA visit, no problem with parking. The price for this room was $143 (no tax or additional fees)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights during the weekend while visiting our son at UCLA. Upon check in there was a confusion with the room assignment, but they corrected it pretty quickly, just the service, probably provided by the student, wasn't too friendly. Our room was on the third floor. Furniture was very standard. Bed was uncomfortable. Mattresses covered with some plastic or liquid resistant fabric. Bathroom reminded the one in motel 6, with extremely bright lights, very small sink, water not hot enough, no fan, towels worn out grey color. Things we like: windows could be open for fresh air; nice flat screen tv, free wi-fi; good breakfast with real espresso machine; nice fire place in the lobby, perfect location for UCLA visit, no problem with parking. The price for this room was $143 (no tax or additional fees)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r89599241-UCLA_Guest_House-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>89599241</t>
+  </si>
+  <si>
+    <t>12/11/2010</t>
+  </si>
+  <si>
+    <t>Perfect deal for attending a UCLA function</t>
+  </si>
+  <si>
+    <t>The UCLA Guest House is dedicated to hosting parents of students and other people who have business on campus.  Our son sings in the UCLA chorale and their holiday concert was on December 4.  We usually stay in the OC with my sister in law when we go to Southern California. But this time, driving from Northern California on Saturday and leaving on Sunday made it a quick trip and we wanted a place close by and not expensive for Los Angeles., The UCLA Guest House was the perfect match for our requirements. It is located on campus on the quiet Bel Air side off Hillgard and a 5-minute walk from Royce Hall where concerts are held. The rate for a queen room is $143 flat rate including free parking and complimentary continental breakfast. There is no occupancy tax. They have 61 rooms and about half the parking space, which means it's first come first serve for parking. Parking is indoors and safe. If you don't get a parking space, they sell you a $10 parking permit for lot 3, about a block away. There is a loading and unloading space when you check in. We had plenty of parking to choose from that day, but heavy days like graduation could make it more difficult. The airport shuttle drop off is a few steps away, and so is the UCLA shuttle stop. The breakfast is tasty  and is served from...The UCLA Guest House is dedicated to hosting parents of students and other people who have business on campus.  Our son sings in the UCLA chorale and their holiday concert was on December 4.  We usually stay in the OC with my sister in law when we go to Southern California. But this time, driving from Northern California on Saturday and leaving on Sunday made it a quick trip and we wanted a place close by and not expensive for Los Angeles., The UCLA Guest House was the perfect match for our requirements. It is located on campus on the quiet Bel Air side off Hillgard and a 5-minute walk from Royce Hall where concerts are held. The rate for a queen room is $143 flat rate including free parking and complimentary continental breakfast. There is no occupancy tax. They have 61 rooms and about half the parking space, which means it's first come first serve for parking. Parking is indoors and safe. If you don't get a parking space, they sell you a $10 parking permit for lot 3, about a block away. There is a loading and unloading space when you check in. We had plenty of parking to choose from that day, but heavy days like graduation could make it more difficult. The airport shuttle drop off is a few steps away, and so is the UCLA shuttle stop. The breakfast is tasty  and is served from 6:30 am to 9:30 am. We showed up at about 8:45, and some things were not replenished like the fruit. So show up a little bit earlier to have everything. Also, we did not get the wake-up call we requested although they offer this service and the front desk attendant said he would do it. The room is small, but comfortable. There is a flat plasma TV with cable and a AM-FM alarm radio with a desk, a chair and an armchair. The decor is a little outdated and the bathroom older, but everything is clean. They provide all the basic toiletry amenities, a hair dryer and an ironing table with iron.The two young ladies at the front desk are friendly. The whole place feels like an older Holiday Inn quality. The only other option in Westwood is the W Hotel at $295 a night + tax which does not include parking and breakfast, so this was a good choice. You also have access to all the UCLA gym facilities for free with your electronic room key card. You could walk to the Westwood restaurants in about 15-20 minutes, but we drove since the parking lot was not full and we knew we would have space when we came back.The UCLA Guest House is the place we will stay at when our son graduates and for his other concerts and Parents Weekend. For graduation and Parents Weekend you need to reserve 10-months in advance because it fills up quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>The UCLA Guest House is dedicated to hosting parents of students and other people who have business on campus.  Our son sings in the UCLA chorale and their holiday concert was on December 4.  We usually stay in the OC with my sister in law when we go to Southern California. But this time, driving from Northern California on Saturday and leaving on Sunday made it a quick trip and we wanted a place close by and not expensive for Los Angeles., The UCLA Guest House was the perfect match for our requirements. It is located on campus on the quiet Bel Air side off Hillgard and a 5-minute walk from Royce Hall where concerts are held. The rate for a queen room is $143 flat rate including free parking and complimentary continental breakfast. There is no occupancy tax. They have 61 rooms and about half the parking space, which means it's first come first serve for parking. Parking is indoors and safe. If you don't get a parking space, they sell you a $10 parking permit for lot 3, about a block away. There is a loading and unloading space when you check in. We had plenty of parking to choose from that day, but heavy days like graduation could make it more difficult. The airport shuttle drop off is a few steps away, and so is the UCLA shuttle stop. The breakfast is tasty  and is served from...The UCLA Guest House is dedicated to hosting parents of students and other people who have business on campus.  Our son sings in the UCLA chorale and their holiday concert was on December 4.  We usually stay in the OC with my sister in law when we go to Southern California. But this time, driving from Northern California on Saturday and leaving on Sunday made it a quick trip and we wanted a place close by and not expensive for Los Angeles., The UCLA Guest House was the perfect match for our requirements. It is located on campus on the quiet Bel Air side off Hillgard and a 5-minute walk from Royce Hall where concerts are held. The rate for a queen room is $143 flat rate including free parking and complimentary continental breakfast. There is no occupancy tax. They have 61 rooms and about half the parking space, which means it's first come first serve for parking. Parking is indoors and safe. If you don't get a parking space, they sell you a $10 parking permit for lot 3, about a block away. There is a loading and unloading space when you check in. We had plenty of parking to choose from that day, but heavy days like graduation could make it more difficult. The airport shuttle drop off is a few steps away, and so is the UCLA shuttle stop. The breakfast is tasty  and is served from 6:30 am to 9:30 am. We showed up at about 8:45, and some things were not replenished like the fruit. So show up a little bit earlier to have everything. Also, we did not get the wake-up call we requested although they offer this service and the front desk attendant said he would do it. The room is small, but comfortable. There is a flat plasma TV with cable and a AM-FM alarm radio with a desk, a chair and an armchair. The decor is a little outdated and the bathroom older, but everything is clean. They provide all the basic toiletry amenities, a hair dryer and an ironing table with iron.The two young ladies at the front desk are friendly. The whole place feels like an older Holiday Inn quality. The only other option in Westwood is the W Hotel at $295 a night + tax which does not include parking and breakfast, so this was a good choice. You also have access to all the UCLA gym facilities for free with your electronic room key card. You could walk to the Westwood restaurants in about 15-20 minutes, but we drove since the parking lot was not full and we knew we would have space when we came back.The UCLA Guest House is the place we will stay at when our son graduates and for his other concerts and Parents Weekend. For graduation and Parents Weekend you need to reserve 10-months in advance because it fills up quickly.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2717,5857 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>264</v>
+      </c>
+      <c r="X28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>273</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" t="s">
+        <v>280</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>281</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>290</v>
+      </c>
+      <c r="X31" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>290</v>
+      </c>
+      <c r="X32" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>300</v>
+      </c>
+      <c r="J33" t="s">
+        <v>301</v>
+      </c>
+      <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>290</v>
+      </c>
+      <c r="X33" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>318</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J38" t="s">
+        <v>338</v>
+      </c>
+      <c r="K38" t="s">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>341</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>342</v>
+      </c>
+      <c r="X38" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" t="s">
+        <v>347</v>
+      </c>
+      <c r="K39" t="s">
+        <v>348</v>
+      </c>
+      <c r="L39" t="s">
+        <v>349</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>350</v>
+      </c>
+      <c r="O39" t="s">
+        <v>172</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>359</v>
+      </c>
+      <c r="X40" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>364</v>
+      </c>
+      <c r="K41" t="s">
+        <v>365</v>
+      </c>
+      <c r="L41" t="s">
+        <v>366</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>87</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>383</v>
+      </c>
+      <c r="O43" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>384</v>
+      </c>
+      <c r="X43" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>388</v>
+      </c>
+      <c r="J44" t="s">
+        <v>389</v>
+      </c>
+      <c r="K44" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>392</v>
+      </c>
+      <c r="X44" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>396</v>
+      </c>
+      <c r="J45" t="s">
+        <v>397</v>
+      </c>
+      <c r="K45" t="s">
+        <v>398</v>
+      </c>
+      <c r="L45" t="s">
+        <v>399</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>392</v>
+      </c>
+      <c r="X45" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>402</v>
+      </c>
+      <c r="J46" t="s">
+        <v>403</v>
+      </c>
+      <c r="K46" t="s">
+        <v>404</v>
+      </c>
+      <c r="L46" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>406</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>407</v>
+      </c>
+      <c r="X46" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>411</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>415</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>407</v>
+      </c>
+      <c r="X47" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>418</v>
+      </c>
+      <c r="J48" t="s">
+        <v>419</v>
+      </c>
+      <c r="K48" t="s">
+        <v>420</v>
+      </c>
+      <c r="L48" t="s">
+        <v>421</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>415</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>407</v>
+      </c>
+      <c r="X48" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>424</v>
+      </c>
+      <c r="J49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K49" t="s">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s">
+        <v>426</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>427</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" t="s">
+        <v>431</v>
+      </c>
+      <c r="K50" t="s">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s">
+        <v>433</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>427</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>434</v>
+      </c>
+      <c r="X50" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>437</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>438</v>
+      </c>
+      <c r="J51" t="s">
+        <v>439</v>
+      </c>
+      <c r="K51" t="s">
+        <v>440</v>
+      </c>
+      <c r="L51" t="s">
+        <v>441</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>442</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>443</v>
+      </c>
+      <c r="X51" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>446</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>447</v>
+      </c>
+      <c r="J52" t="s">
+        <v>448</v>
+      </c>
+      <c r="K52" t="s">
+        <v>449</v>
+      </c>
+      <c r="L52" t="s">
+        <v>450</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>451</v>
+      </c>
+      <c r="O52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>452</v>
+      </c>
+      <c r="X52" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>457</v>
+      </c>
+      <c r="K53" t="s">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s">
+        <v>459</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>460</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>461</v>
+      </c>
+      <c r="X53" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>465</v>
+      </c>
+      <c r="J54" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" t="s">
+        <v>467</v>
+      </c>
+      <c r="L54" t="s">
+        <v>468</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>451</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>469</v>
+      </c>
+      <c r="X54" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>472</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>474</v>
+      </c>
+      <c r="K55" t="s">
+        <v>475</v>
+      </c>
+      <c r="L55" t="s">
+        <v>476</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>469</v>
+      </c>
+      <c r="X55" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>478</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>479</v>
+      </c>
+      <c r="J56" t="s">
+        <v>480</v>
+      </c>
+      <c r="K56" t="s">
+        <v>481</v>
+      </c>
+      <c r="L56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>483</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>484</v>
+      </c>
+      <c r="X56" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>487</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>488</v>
+      </c>
+      <c r="J57" t="s">
+        <v>489</v>
+      </c>
+      <c r="K57" t="s">
+        <v>490</v>
+      </c>
+      <c r="L57" t="s">
+        <v>491</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>483</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>492</v>
+      </c>
+      <c r="X57" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" t="s">
+        <v>498</v>
+      </c>
+      <c r="L58" t="s">
+        <v>499</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>500</v>
+      </c>
+      <c r="O58" t="s">
+        <v>87</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>501</v>
+      </c>
+      <c r="X58" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>504</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>505</v>
+      </c>
+      <c r="J59" t="s">
+        <v>506</v>
+      </c>
+      <c r="K59" t="s">
+        <v>507</v>
+      </c>
+      <c r="L59" t="s">
+        <v>508</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>509</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>510</v>
+      </c>
+      <c r="X59" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>513</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>514</v>
+      </c>
+      <c r="J60" t="s">
+        <v>515</v>
+      </c>
+      <c r="K60" t="s">
+        <v>516</v>
+      </c>
+      <c r="L60" t="s">
+        <v>517</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>518</v>
+      </c>
+      <c r="O60" t="s">
+        <v>172</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>519</v>
+      </c>
+      <c r="X60" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>522</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>523</v>
+      </c>
+      <c r="J61" t="s">
+        <v>524</v>
+      </c>
+      <c r="K61" t="s">
+        <v>525</v>
+      </c>
+      <c r="L61" t="s">
+        <v>526</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>527</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>528</v>
+      </c>
+      <c r="X61" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>531</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>532</v>
+      </c>
+      <c r="J62" t="s">
+        <v>533</v>
+      </c>
+      <c r="K62" t="s">
+        <v>534</v>
+      </c>
+      <c r="L62" t="s">
+        <v>535</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>536</v>
+      </c>
+      <c r="O62" t="s">
+        <v>172</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>537</v>
+      </c>
+      <c r="X62" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>540</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>541</v>
+      </c>
+      <c r="J63" t="s">
+        <v>542</v>
+      </c>
+      <c r="K63" t="s">
+        <v>543</v>
+      </c>
+      <c r="L63" t="s">
+        <v>544</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>545</v>
+      </c>
+      <c r="O63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>546</v>
+      </c>
+      <c r="X63" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>549</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>550</v>
+      </c>
+      <c r="J64" t="s">
+        <v>551</v>
+      </c>
+      <c r="K64" t="s">
+        <v>552</v>
+      </c>
+      <c r="L64" t="s">
+        <v>553</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>554</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>546</v>
+      </c>
+      <c r="X64" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>556</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>557</v>
+      </c>
+      <c r="J65" t="s">
+        <v>558</v>
+      </c>
+      <c r="K65" t="s">
+        <v>559</v>
+      </c>
+      <c r="L65" t="s">
+        <v>560</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>561</v>
+      </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>562</v>
+      </c>
+      <c r="X65" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>565</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>566</v>
+      </c>
+      <c r="J66" t="s">
+        <v>567</v>
+      </c>
+      <c r="K66" t="s">
+        <v>568</v>
+      </c>
+      <c r="L66" t="s">
+        <v>569</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>570</v>
+      </c>
+      <c r="O66" t="s">
+        <v>172</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>571</v>
+      </c>
+      <c r="X66" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>574</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>575</v>
+      </c>
+      <c r="J67" t="s">
+        <v>576</v>
+      </c>
+      <c r="K67" t="s">
+        <v>577</v>
+      </c>
+      <c r="L67" t="s">
+        <v>578</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>579</v>
+      </c>
+      <c r="O67" t="s">
+        <v>580</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>581</v>
+      </c>
+      <c r="X67" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>584</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>585</v>
+      </c>
+      <c r="J68" t="s">
+        <v>586</v>
+      </c>
+      <c r="K68" t="s">
+        <v>587</v>
+      </c>
+      <c r="L68" t="s">
+        <v>588</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>545</v>
+      </c>
+      <c r="O68" t="s">
+        <v>87</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>589</v>
+      </c>
+      <c r="X68" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>592</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>593</v>
+      </c>
+      <c r="J69" t="s">
+        <v>594</v>
+      </c>
+      <c r="K69" t="s">
+        <v>595</v>
+      </c>
+      <c r="L69" t="s">
+        <v>596</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>579</v>
+      </c>
+      <c r="O69" t="s">
+        <v>122</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>589</v>
+      </c>
+      <c r="X69" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>598</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>599</v>
+      </c>
+      <c r="J70" t="s">
+        <v>600</v>
+      </c>
+      <c r="K70" t="s">
+        <v>601</v>
+      </c>
+      <c r="L70" t="s">
+        <v>602</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>603</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>604</v>
+      </c>
+      <c r="X70" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>607</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>608</v>
+      </c>
+      <c r="J71" t="s">
+        <v>609</v>
+      </c>
+      <c r="K71" t="s">
+        <v>610</v>
+      </c>
+      <c r="L71" t="s">
+        <v>611</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>604</v>
+      </c>
+      <c r="X71" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>613</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>614</v>
+      </c>
+      <c r="J72" t="s">
+        <v>615</v>
+      </c>
+      <c r="K72" t="s">
+        <v>616</v>
+      </c>
+      <c r="L72" t="s">
+        <v>617</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>603</v>
+      </c>
+      <c r="O72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>618</v>
+      </c>
+      <c r="X72" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>620</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>621</v>
+      </c>
+      <c r="J73" t="s">
+        <v>622</v>
+      </c>
+      <c r="K73" t="s">
+        <v>623</v>
+      </c>
+      <c r="L73" t="s">
+        <v>624</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>603</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>618</v>
+      </c>
+      <c r="X73" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>626</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>627</v>
+      </c>
+      <c r="J74" t="s">
+        <v>628</v>
+      </c>
+      <c r="K74" t="s">
+        <v>629</v>
+      </c>
+      <c r="L74" t="s">
+        <v>630</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>631</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>633</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>634</v>
+      </c>
+      <c r="J75" t="s">
+        <v>635</v>
+      </c>
+      <c r="K75" t="s">
+        <v>636</v>
+      </c>
+      <c r="L75" t="s">
+        <v>637</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>638</v>
+      </c>
+      <c r="O75" t="s">
+        <v>122</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>640</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>641</v>
+      </c>
+      <c r="J76" t="s">
+        <v>642</v>
+      </c>
+      <c r="K76" t="s">
+        <v>643</v>
+      </c>
+      <c r="L76" t="s">
+        <v>644</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>645</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>647</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>648</v>
+      </c>
+      <c r="J77" t="s">
+        <v>649</v>
+      </c>
+      <c r="K77" t="s">
+        <v>650</v>
+      </c>
+      <c r="L77" t="s">
+        <v>651</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>652</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>654</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>655</v>
+      </c>
+      <c r="J78" t="s">
+        <v>656</v>
+      </c>
+      <c r="K78" t="s">
+        <v>657</v>
+      </c>
+      <c r="L78" t="s">
+        <v>658</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>659</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>660</v>
+      </c>
+      <c r="J79" t="s">
+        <v>661</v>
+      </c>
+      <c r="K79" t="s">
+        <v>662</v>
+      </c>
+      <c r="L79" t="s">
+        <v>663</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>664</v>
+      </c>
+      <c r="O79" t="s">
+        <v>87</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>665</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>666</v>
+      </c>
+      <c r="J80" t="s">
+        <v>667</v>
+      </c>
+      <c r="K80" t="s">
+        <v>668</v>
+      </c>
+      <c r="L80" t="s">
+        <v>669</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>670</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>672</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>673</v>
+      </c>
+      <c r="J81" t="s">
+        <v>674</v>
+      </c>
+      <c r="K81" t="s">
+        <v>675</v>
+      </c>
+      <c r="L81" t="s">
+        <v>676</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>677</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>678</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>679</v>
+      </c>
+      <c r="J82" t="s">
+        <v>674</v>
+      </c>
+      <c r="K82" t="s">
+        <v>680</v>
+      </c>
+      <c r="L82" t="s">
+        <v>681</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>670</v>
+      </c>
+      <c r="O82" t="s">
+        <v>87</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>682</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>683</v>
+      </c>
+      <c r="J83" t="s">
+        <v>684</v>
+      </c>
+      <c r="K83" t="s">
+        <v>685</v>
+      </c>
+      <c r="L83" t="s">
+        <v>686</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>687</v>
+      </c>
+      <c r="O83" t="s">
+        <v>87</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>689</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>690</v>
+      </c>
+      <c r="J84" t="s">
+        <v>691</v>
+      </c>
+      <c r="K84" t="s">
+        <v>692</v>
+      </c>
+      <c r="L84" t="s">
+        <v>693</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>694</v>
+      </c>
+      <c r="O84" t="s">
+        <v>87</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>696</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>697</v>
+      </c>
+      <c r="J85" t="s">
+        <v>698</v>
+      </c>
+      <c r="K85" t="s">
+        <v>699</v>
+      </c>
+      <c r="L85" t="s">
+        <v>700</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>701</v>
+      </c>
+      <c r="O85" t="s">
+        <v>87</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>702</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>703</v>
+      </c>
+      <c r="J86" t="s">
+        <v>704</v>
+      </c>
+      <c r="K86" t="s">
+        <v>705</v>
+      </c>
+      <c r="L86" t="s">
+        <v>706</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>707</v>
+      </c>
+      <c r="O86" t="s">
+        <v>87</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>709</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>710</v>
+      </c>
+      <c r="J87" t="s">
+        <v>711</v>
+      </c>
+      <c r="K87" t="s">
+        <v>712</v>
+      </c>
+      <c r="L87" t="s">
+        <v>713</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>714</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>47693</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>716</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>717</v>
+      </c>
+      <c r="J88" t="s">
+        <v>718</v>
+      </c>
+      <c r="K88" t="s">
+        <v>719</v>
+      </c>
+      <c r="L88" t="s">
+        <v>720</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>721</v>
+      </c>
+      <c r="O88" t="s">
+        <v>172</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>722</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_809.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_809.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="807">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>KatrinkaSD</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>It’s so nice to have a place to stay that feels like home when we visit our son at UCLA.  And always such interesting people at breakfast!  Priced a little high, but worth it for convenience, peace of mind and that breakfast!  Great food, kind and helpful staff...and great restaurants nearby.  More</t>
   </si>
   <si>
+    <t>IGNATIUS JOSEPH R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r577525362-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>UCLA guest house is a friendly and homely place. It is walking distance within campus and convenient. There is complementary breakfast while tea and coffee is available free 24hrs. Lunch and dinner is not available but there is a student's cafe/food canteen called Lu Valle just across the road in campus. You will have to drive out to Westwood village if you wanted a proper sit down dinner placeWe had a great time and would definitely go backMore</t>
   </si>
   <si>
+    <t>jodent1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r574260593-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>We just spent the weekend visiting UCLA for Bruin Day. It was perfect as it is situated right on the campus. As soon as you drive up it is very warm, cozy and welcoming. We did not hire a car as everything was very easy to walk to, there is the option for parking though for $12 a night. We did use Lyft a couple of times and they pick you up and drop you off right where the guest house is. The room was very spacious, clean and bright and the staff all lovely and willing to help. The complimentary breakfast was a great start to a busy day of walking around campus. Lots of choice and in a lovely relaxing, cozy room. We were also able to store our bags after check out as our flight was not until later in the day. It was a fabulous stay and I would definitely stay there again. More</t>
   </si>
   <si>
+    <t>Mary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r572571063-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>I just stayed here with my son one night since we were taking a tour of UCLA. The room was very comfortable, elegantly furnished and clean. The lobby likewise. The staff were friendly and helpful. The garden around the guest house is lush and beautiful--it's L.A.! It's very conveniently located on the northern end of campus with a shuttle stop nearby, or an easy 15 minute walk into the center of campus. The continental breakfast was good. There was no cereal for some reason. Is cereal not an L.A. thing? But there were plenty of other good things to eat, so it worked out fine. It was easy to book it over the phone, and the price is reasonable for L.A. I couldn't find any other affordable hotel right on/near UCLA, except for one right next to the freeway.More</t>
   </si>
   <si>
+    <t>stephenc625</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r571738620-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>the UCLA Guest House continues to maintain a quality arrangement for visitors to campus, with a warm atmosphere, comfortable rooms, and a very quiet internal atmosphere that is relaxing after a full day of work on campus.More</t>
   </si>
   <si>
+    <t>zanzig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r568540040-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>Room was clean and up to date. Breakfast was ok but it was the same every morning. The room is a bit small but I stayed by myself so it was ok. Next to the campus but on the side that was next to a neighborhood. So no entertainment.More</t>
   </si>
   <si>
+    <t>Celeste B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r552910539-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -366,6 +387,9 @@
     <t>LOVE this place, the staff, the location, the amenities, the breakfast, the clientele, even the parking.  Very hard to beat.  If you have a connection to UCLA, this is the place, even for a weekend getaway.  Absolutely perfect if you are visiting a student here.  No pool and no room service, but we never missed either in the slightest, and you can always do delivery.  Staff was warm and friendly.  Breakfast was just wonderful and very unique.  Not your standard fare.  Did not use the laundry room, but found great comfort in even knowing it was there.More</t>
   </si>
   <si>
+    <t>psvn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r542349401-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -396,6 +420,9 @@
     <t>extremely well. neat rooms courteous staff. excellent breakfast. good facilities. proximity for anderson college is good. surroundings are good. Proximity for getting cab is good. Nice place to stay. even for family. Lunch and dinner need to manage.More</t>
   </si>
   <si>
+    <t>Barbra B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r527703027-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -423,6 +450,9 @@
     <t>The UCLA Guest house is perfect if you need to be on campus and its so convenient to Westwood, which is delightful. The staff is wonderful and the buffet is fantastic. The guest rooms are not as updated as they could be, but aside from that, highly recommended. More</t>
   </si>
   <si>
+    <t>BigD_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r527656932-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -441,6 +471,9 @@
     <t>We brought our first college-bound child to school and stayed here the night before.  The location is perfect for UCLA-based stays.  What's more, we found the rate very reasonable for the neighborhood.  You get to park in a security-controlled garage, which is nice, though the stalls are on the small side.The room was a bit cramped with a queen and twin bed, but comfortable enough.  We didn't think to ask if the room came with a refrigerator, so we were let down on that front, but we should have inquired first.  Interestingly, there is a large open space in the bathroom that could easily accommodate a refrigerator, so I'm not sure why it doesn't have one.The breakfast option was lovely with a large variety of options, including gluten-free, which my wife appreciated.  Seating in the breakfast area can be challenging, but once you're seated it is comfortable.The staff were extremely helpful, including going upstairs to check our door when one of the keys stopped working.  They also gave us good campus directions as well when we needed to find a certain department.We'd stay here again if needed.More</t>
   </si>
   <si>
+    <t>dnmnbrick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r524898043-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -465,6 +498,9 @@
     <t>Built in 1985, and very well maintained and kept up. My room (#241, overlooking Hilgard) was very clean and comfortable with new-appearing furnishings. Not large, but quite enough for one or two people; iron, ironing board, hair dryer, etc. No in-room coffee, but it was available downstairs in the lounge. Breakfast had both hot and cold items, and a decent selection of pastries and fruit. Friendly staff. Fast internet. Only limited parking at the Guest House, but several campus parking structures are within an easy walk. Not a full-service hotel, but very useful for those who (like me) are coming to the campus as a destination.More</t>
   </si>
   <si>
+    <t>LhasaTrvlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r517724694-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -492,6 +528,9 @@
     <t>We visited UCLA to tour the campus for one of my daughter's top college choices. Well what a beautiful experience. The small boutique-like hotel was clean, friendly and very beautiful. Staff were so cheerful and helpful I wished we had stayed longer. No, it isn't the most luxurious places, but it wowed us all the same. I give it my highest recommendation if your travels take you to UCLA.More</t>
   </si>
   <si>
+    <t>V7094NKvictorial</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r508501148-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -519,6 +558,9 @@
     <t>We chose the UCLA Guest House to stay during our college tours of LA and was so pleased we did.  It was close to everything.  It was clean, great staff, and amazing breakfast.  Some people say the rooms are too small.  They were fine for us!  I would recommend the UCLA Guest House to anyone needing a safe place to stay and easy access to get around.  They have parking, though we opted for Lyft while in the LA area and it worked great..More</t>
   </si>
   <si>
+    <t>305donaldp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r497718300-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -546,6 +588,9 @@
     <t>For those visiting UCLA for business or pleasure I can't think of a better place to stay than the UCLA Guest House. Located right on campus, it provides easy access to Royce Hall and all the other campus attractions and events. It is a clean, quiet, well-maintained facility, staffed by friendly people.More</t>
   </si>
   <si>
+    <t>Sasha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r490988280-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -570,6 +615,9 @@
     <t>The Guest House combines an old-fashioned charm with the superb convenience. For those who have business on the UCLA campus, being able to walk to a meeting is matchless. In Los Angeles, where everything seems to be built on a grand scale, I was delighted to be able to return to this homey retreat. I found the staff to be exceptionally helpful and courteous. More</t>
   </si>
   <si>
+    <t>ewing_5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r490985479-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -585,6 +633,9 @@
     <t>very well located when you have an event at UCLA  .very nice breakfast and convenient parking. the room was clean and quiet   very friendly and helpful staff-  we would stay here again-  good value for the area-nice common areas and the campus offers a beautiful and serene settingMore</t>
   </si>
   <si>
+    <t>tricialfb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r488765326-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -612,6 +663,9 @@
     <t>My son and I stayed to the UCLA Guest House when he toured UCLA as a prospective student.  This was a beautiful facility on a beautiful campus.  Service was excellent.  Those at the front desk were very helpful with way finding.  We were able to leave the car parked at the Guest House while we toured the campus, so we didn't have to worry about parking.  More</t>
   </si>
   <si>
+    <t>jojaSanDiego_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r476249339-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -639,6 +693,9 @@
     <t>The UCLA  Guest House  is a pleasant surprise. It is a delightful 1930's California styled hotel ib in the NE Side of the UCLA Campus. It has great historical photos of UCLA, a warm and welcoming lounge area where  fantastic breakfast is served in the morning. The staff is very helpful and friendly.  The front desk staff could not have been friendlier - had great knowledge of the campus and Los Angeles in general and really made you feel welcome and comfortable. . Highly recommend staying here! If my daughter chooses UCLA then I know I will be back!!More</t>
   </si>
   <si>
+    <t>Teri M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r471238742-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -666,6 +723,9 @@
     <t>The hotel is beautiful.  The location is perfect.  The breakfast is the best I have ever enjoyed!  It is truly amazing.  The staff are genuinely friendly and go out of their way to be helpful.   I couldn't have had a better experience and I definitely plan on staying there again.  More</t>
   </si>
   <si>
+    <t>Teresa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r470887358-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -684,6 +744,9 @@
     <t>I stayed at the UCLA Guest House while on campus for a conference and I'm so glad I did. It's a charming, homey-feeling locale with a lovely front porch, clean rooms with all the amenities, and a terrific location. The complimentary breakfast was the best breakfast I think I've ever had. Seriously, it was amazing! They also have a nightly Manager's Reception with complimentary cocktails and hors d'oeuvres. The front desk staff could not have been friendlier - had great knowledge of the campus and Los Angeles in general and really made you feel welcome and comfortable. Just steps away from public transportation and an easy cab or Uber ride to anything you'd want to see. Highly recommend staying here!More</t>
   </si>
   <si>
+    <t>SCheng46855</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r467926509-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -708,6 +771,9 @@
     <t>We checked in here for one night prior to doing an admission tour at UCLA. The hotel is very convenient to campus and there is parking on site for a small fee.  I had two rooms, one for my spouse and me and one for my teens. The rooms are reasonable size. One of our rooms given to us on check in hadn't been cleaned. Used towels, trash, dirty wine glasses were in the room. Housekeeping came quickly to fix. The other room was clean. Our rooms were on the second floor near the central open part and the next morning I was woken up early by the noise from the open breakfast area, people's conversations, laughter, etc. When we finally went down to eat there wasn't enough space available to sit together. They could use more tables.  I think if you want convenience to UCLA at a reasonable price, this is fine but ask for a room as far away from the center as possible.More</t>
   </si>
   <si>
+    <t>Lynn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r466164906-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -729,6 +795,9 @@
     <t>Excellent and friendly service! Such a nice, relaxing atmosphere at an affordable price. I would definitely recommend it! It is located on the UCLA campus and convenient to downtown and Westwood area.More</t>
   </si>
   <si>
+    <t>louie8882017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r466126828-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -744,6 +813,9 @@
     <t>The UCLA Guest House is the place to stay when visiting UCLA.  Clean, staff-friendly, reasonably priced and cozy, you feel like you never left home. The Guest House is located on the UCLA campus -- and one of the best kept secrets in Westwood .  I've stayed there many times.  There's also the daily buffet breakfast and the manager's reception (wine and cheese) in the late afternoon/early evening-- both complimentary -- that comes with staying there.  Who can beat that?   Ideal for families visiting the UCLA campus with their college-bound children or for UCLA alums needing a quiet place to stay in Los Angeles, away from the bustling streets and busy freeways. More</t>
   </si>
   <si>
+    <t>valeriejamesl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r454846579-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -771,6 +843,9 @@
     <t>This was the second time I was at the UCLA GH.  Exceptional value for the quality of the accommodations.  Room was clean, well appointed and the bed was very comfortable.  Staff is pleasant and the complimentary breakfast and evening reception had good choices and quality foods. Have already booked a visit in six months.  More</t>
   </si>
   <si>
+    <t>Leslie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r453598252-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -795,6 +870,9 @@
     <t>My son and I stayed here for a UCLA visit. The location (on campus) was perfect and finding our way around was easy. The staff are extremely friendly and helpful. We needed a cot and it was waiting in our room after check in. The afternoon refreshments and breakfast are lovely: good quality and little different than the usually buffet. We would stay again.More</t>
   </si>
   <si>
+    <t>yschiam912</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r448726517-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -819,6 +897,9 @@
     <t>staffs are very helpful, attentive and friendly esp Richard (manager) and Joe. Facility is well maintained, room is spacious for 3 and toilet is very clean. Laundry machines are working well with reasonable price.More</t>
   </si>
   <si>
+    <t>louannp248</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r435364579-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -846,6 +927,9 @@
     <t>I was pleasantly surprised at the quality of my stay. Everything was clean, staff was very friendly and accommodating. I appreciate the convenient parking and accessibility to the campus. I would recommend to others. More</t>
   </si>
   <si>
+    <t>rabry7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r433083628-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -873,6 +957,9 @@
     <t>The room was nice and the bathroom was fairly luxurious. Lots of hot water with good water pressure. The location is by far the best part, though, right on the UCLA campus. The lobby and breakfast area is open and there are guest rooms immediately adjacent on the first floor. These rooms must get a fair amount of noise. My colleague who has stayed many times advised to ask for a 2nd floor room.More</t>
   </si>
   <si>
+    <t>191janice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r431526714-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -897,6 +984,9 @@
     <t>Great place to stay when visiting our UCLA student! Always our first choice as a place to stay!! Friendly and helpful staff, clean, great breakfast, great location and always a great experience. Highly recommend!More</t>
   </si>
   <si>
+    <t>SDPadres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r431349797-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -915,6 +1005,9 @@
     <t>We were at the guest house for Bruin Family Weekend.  Our room was so clean and comfortable.  Our neighbors were quiet too.  We have stayed here many times but always on a Sat and or Sunday and so when we got managers reception tickets for 2 nice drinks each it was perfect.  It is M-F I am guessing.  The reception has cheese, fruit, meat, breads.  Wine and or beer.  The price of the guest house isn't cheap but still less than the W and Marriott down on Wilshire.  For $219 (no tax) and $12 for parking it's worth it if you are visiting UCLA.  It's a bit on the N end so not necessarily a short walk to Westwood.  And you get a nice breakfast each day. More</t>
   </si>
   <si>
+    <t>Marisa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r431037964-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -933,6 +1026,9 @@
     <t>Although my student is a senior, I never stayed at the Guest House. On  campus itself and very secure with underground parking. Nice breakfast and a manager's wine/beer reception M-F. Only issue is the beds were very firm. Otherwise very nice place to stay. More</t>
   </si>
   <si>
+    <t>johnberlin2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r428905465-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -957,6 +1053,9 @@
     <t>The staff at the UCLA Guest House were extremely friendly and helpful. Check in and check out was smooth. Rooms were clean and were spacious. The accommodations were very nice and I highly recommend this establishment. More</t>
   </si>
   <si>
+    <t>Katharina B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r421611149-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -982,6 +1081,9 @@
   </si>
   <si>
     <t>If you're looking for the perfect place to stay on or near the UCLA campus, look no further. The accomodations couldn't be better, the food is amazing, and the staff is very courteous and helpful. I wish I could have stayed longer!More</t>
+  </si>
+  <si>
+    <t>eat1226</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r417832872-UCLA_Guest_House-Los_Angeles_California.html</t>
@@ -1016,6 +1118,9 @@
 Breakfast was complimemtary and quite adequate with hot oatmeal, fruits, hard boiled eggs, cheeses, processed meats and a variety of bakery items. At 5:30 to 7:30pm each day, simple cocktails with food was offered. There was no restaurant in the hotel but if you walk across the street, Ucla Lu Valle Commons offer a variety of food choices. Inside the Ucla campus were...My daughter and I stayed at UCLA guesthouse from Sept 5 to 10, 2016 to attend the new freshmen orientation on campus. Initially I was not expecting much of the stay thinking that it is just a small guesthouse (with limited services) which cannot compete with the bigger hotels. Fortunately I was proven to be very wrong!Upon arrival there was only one person at thd front desk. But she immediately came out to help us when we asked for assistance to bring our 4 big luggages to our room. We didnt notice that there was an elevator and thought we needed stairs.The room is old and in need of upgrading. But it is clean and the beds are super comfortable and welcoming especially to those who are jet lagged.There was no complimentary bottled water nor body wash for the room. Only shampoo, conditioner and  lotion were offered. Plastic cups were available and there were ice and vending machines (with water) on the 2nd floor. There was also a small laundromat at the 2nd floor.Breakfast was complimemtary and quite adequate with hot oatmeal, fruits, hard boiled eggs, cheeses, processed meats and a variety of bakery items. At 5:30 to 7:30pm each day, simple cocktails with food was offered. There was no restaurant in the hotel but if you walk across the street, Ucla Lu Valle Commons offer a variety of food choices. Inside the Ucla campus were other food restaurants and options.Under LuValle commons is an Ucla store that serves as both a convenience store and a bookstore.One downside is that the guesthouse is sutuated far from the residence halls. It will take 30 minutes to walk to the dorms. But it is a short 5 minute uber ride away.But what made our stay memorable was not the room, food or convenience. It was the people that run Ucla Guesthouse. Everybody here is very kind, friendly and helpful. Though you are a thousand miles away from home, they make you feel like you are part of their family. Though they are normally busy I never see them flustered or look annoyed. They will talk to you patiently and offer a listening ear to parents or students struggling with separation anxiety or homesickness.Overall I am very impressed and will not hesitate to recommend Ucla guesthouse to anyone visiting the Ucla campus.More</t>
   </si>
   <si>
+    <t>Vincent K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r416657453-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1034,6 +1139,9 @@
     <t>Our stay at UCLA guest house was homely and the best we could have imagined in US. Staff was cordial and facilities provided here are excellent and never felt we are away from home. The Asst General Manager was very supportive.More</t>
   </si>
   <si>
+    <t>Stephen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r407295224-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1061,6 +1169,9 @@
     <t>Stabled on to this gem, so glad that we stayed here. Walking distance to everything we were doing at the university. Never used the car, accept when we were going home. I would stay here again at a heart beat.More</t>
   </si>
   <si>
+    <t>ArizonaYorks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r401507294-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1088,6 +1199,9 @@
     <t>The staff at this hotel certainly helped make for a successful stay.  We were at UCLA for a medical appointment flying in from out of state.  As we did not want to drive we relied upon taxis for all of our needs.  The staff were great at ordering taxis and the campus shuttle which can be ordered in advance.  The hotel is quiet, we overlooked at leafy street which had minimal traffic. This might change in term time?  Breakfasts are a rather odd mix of healthy foods, fresh fruit, oatmeal and yogurt and cooked meats and high fat cheeses.   The rooms are fairly small but well appointed with all you need. Good linens, clean bathrooms and good towels.   We walked to the impressive sculpture garden and to a student cafeteria which had great coffee and good hamburgers. Since there is no restaurant within walking distance from the hotel it is a pity the cafeteria closes at 4.More</t>
   </si>
   <si>
+    <t>S5334XCjennifert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r398607773-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1112,6 +1226,9 @@
     <t>We were treated warmly by everyone we encountered on site at the UCLA Guest House. I had looked online for options for where to stay in Westwood since my daughter was going to be attending the summer Volleyball Camp at UCLA. My search was frustrating, as all the options were so incredibly expensive or not rated well on any of the travel websites I utilized. My husband prompted me to search for an on-site option at UCLA, and I was so pleased to fine the Guest House online. The person who assisted with our reservation was very professional and helpful. We were able to book 2 of the 3 nights we were looking for. Unfortunately, they were full on one of the nights, but I literally called 1 week prior to our visit. We were so pleased when we found our room to be incredibly clean, comfortable and quiet. They provided complimentary continental breakfasts that were just perfect. There was always tea, coffee, and hot chocolate available in the lounge area. The location was better than any other option we could have stayed at in the area. We are definitely going to return next summer when my daughter returns for another camp. I just can't say enough positive things about the Guest House. It was truly much much more than we expected. More</t>
   </si>
   <si>
+    <t>caitlingabew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r393931401-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1136,6 +1253,9 @@
     <t>Staff were some of the most friendly, warm, and helpful hotel staff I have ever encountered.  They made all aspects of my stay enjoyable and went above and beyond.The facility was warm and cozy, rooms lovely, and the breakfast buffet one of the best "continental" breakfasts I've ever seen.I'd definitely stay here again. More</t>
   </si>
   <si>
+    <t>BajaR0cks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r392293999-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1160,6 +1280,9 @@
     <t>The place was very well kept. The price was fair. There are no amenities like pool or spa. They serve a wonderful breakfast. The but came recently when inquiring into a stay and finding out they bumped the prices significantly and to add they informed us that was the price for single occupancy and a second person i.e. husband or wife in the room was an  extra $20-$25 a nite. So from very good to very awkwardMore</t>
   </si>
   <si>
+    <t>MBTinDC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r385919658-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1187,6 +1310,9 @@
     <t>If I will be staying in LA and have business with UCLA, I always try to stay at the Guest House. The location could not be more perfect: right on campus off Hilgard just south of Sunset. The rooms are on the cozy side, but nicely appointed. There is on-site location subject to space available. The staff are all, to a person, friendly and welcoming. I feel right at home there, and look forward to my next visit. More</t>
   </si>
   <si>
+    <t>janvL3636NB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r381283163-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1211,6 +1337,9 @@
     <t>Great location to visit your student at UCLA!   You can easily walk to everything on campus and the staff and guesthouse are very clean and neat.  The breakfast was very good and it was really great to have a parking spot on campus!More</t>
   </si>
   <si>
+    <t>laurelleaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r380881024-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1229,6 +1358,9 @@
     <t>Really enjoyed staying at this lovely, European-style hotel directly on a beautiful campus. Staff were warm and friendly - especially Richard, who went out of his way to make me and my mom feel immediately welcomed and taken care of. One of the best included breakfasts I've ever had at an American hotel. Everything is arranged for guests' comfort and convenience. Great value for such a nice location in a big city - would definitely recommend to anyone who needs to stay in this part of town.More</t>
   </si>
   <si>
+    <t>HFMB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r372581823-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1256,6 +1388,9 @@
     <t>My husband and I visited UCLA to see our granddaughter. Our daughter, who is an alumna and was also visiting, recommended the guesthouse. The staff is wonderful. They are truly welcoming and make you feel at home.  Our room was small but very comfortable and quiet, with an excellent bed. Though in need of some updates (the carpet, for instance, has seen better days), the hotel is very clean, and the common areas are large and pleasant. The continental breakfast indeed resembles what you get on the continent:  meats, cheeses, a nice array of baked goods, and so forth. Several restaurants deliver, should you not feel like going out, and some rooms have refrigerators. There's a small coin launderette on site. The location is perfect for the purpose, UCLA being just across the street (stroll through the sculpture garden!), and Westwood nearby. We used Über or walked to our destinations, but they do have secure, onsite parking for drivers. The Über fare from/to LAX, by the way, was around $25 (May 2016).More</t>
   </si>
   <si>
+    <t>kokosandiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r362297856-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1277,6 +1412,9 @@
     <t>thus, we stayed in this guest house.  for what it is, I would rate everything excellent, parking easy, check in/out efficient , professional and staff helpful.  Very clean lobby area and rooms.  Location is without doubt the best for the university or med center. and breakfast was much more than expected.  we  had a wide range of choices, everything well presented, fresh, replenished and seating area well kept and accessible for everyone.  Kudos to the breakfast staff! This is not a high end hotel, not a hotel with extras, fluffy towels, modern bath or beautiful fabrics or a lobby where you want to sit and have a drink..it is "sturdy, well run and meets a need"...for what it is they do a great job.More</t>
   </si>
   <si>
+    <t>LS_GoingPlaces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r361910226-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1295,6 +1433,9 @@
     <t>The Guest House is just that - a warm, inviting, well-maintained and loved house that is open to people attached in some way to UCLA.  We booked a room for 2 but when we added a 3rd person upon arrival, the staff very willingly offered a rollaway bed and extra towels.  The property itself sits immediately across from the UCLA campus entrance and could not be more convenient.  The beds, bedding and other amenities are like a 5 star hotel but it's much more intimate.  Loved the breakfast buffet area and fireplace, the buffet itself and the ambiance.  Every single member of the staff is happy, happy to help you and seems to be happy to be there.  We cannot wait for our next visit.  More</t>
   </si>
   <si>
+    <t>hummingbird586</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r361853645-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1313,6 +1454,9 @@
     <t>The room (#230) is a bit small. I do love the quietness of the hotel. I felt like being home away from home. The breakfast include high quality cold cut meats, cheese, fruits, oatmeal, patries &amp; bread.More</t>
   </si>
   <si>
+    <t>gcpradhan1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r358013177-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1337,6 +1481,9 @@
     <t>I stayed at this guest house for 4 nights in Mid- March when I visited UCLA to attend a conference. Although my host paid for my trip, so I have no idea about the cost of my stay, but my experience at this place was fantastic.The front office staffs were very cooperative and the morning breakfast was superb. They changed our linens everyday. We had a great bathroom with classical hardware fittings all in good shapes. I love the locations. Its in the campus, Powell Library, Royce Hall and Folwer Museum and you name it, all are within walking distance. Thanks to the whole staffs there at UCLA Guest House for my pleasurable stay. Of course, I will highly recommend anybody visiting UCLA to stay at this wonderful place. Hope someday I stay there again.More</t>
   </si>
   <si>
+    <t>m_h_trips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r349701012-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1364,6 +1511,9 @@
     <t>This is a great option if you have a need to be at UCLA or environs.  The guesthouse has the feel of a welcoming home.  Breakfast is complementary and good.  Free wifi is included in the room rate.  All staff were extremely friendly, helpful and knowledgable. We didn't have a car but there are plenty of travel options close by including free campus shuttles.More</t>
   </si>
   <si>
+    <t>DBDay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r348727063-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1391,6 +1541,9 @@
     <t>I love this little hotel.  The rooms are small but efficient, the beds are comfortable, and the breakfast and all-day coffee, tea, and fruit make it comfy and welcoming.  UCLA is located near some of the priciest areas in Southern California, and the regular commercial hotels in the area can cost upward of $300/night.  The guest house offers reasonably-priced accommodations right on the campus for those with a need to visit at the University overnight. The rooms are relatively quiet, and. the staff are friendly and helpful.  A great choice at a good price!More</t>
   </si>
   <si>
+    <t>ColNina23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r334919698-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1418,6 +1571,9 @@
     <t>My husband and I had a wonderful visit to the UCLA Guest House. We were warmly welcomed by the front staff and Esther gave us extra assistance via telephone with navigation and parking accommodations! It was greatly appreciated after a very long flight to LA. Our room was very comfortable and extremely clean, and the breakfast buffet was satisfying and convenient with coffee and tea to go! The location to the campus cannot be beat, and we enjoyed walking onto campus for all of the parent activities. UCLA does a great job at providing a wide array of activities, presentations, sporting events, and meals to parents and families. Beautiful visit!More</t>
   </si>
   <si>
+    <t>ShotDoctor23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r331686524-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1442,6 +1598,9 @@
     <t>The hotel location is fantastic, right on the edge of campus, which makes it easy to walk through campus, or get to Brentwood or Beverly Hills.  The staff was highly knowledgeable on the area.  The continental breakfast was simple, but it was a great way to get the day going.More</t>
   </si>
   <si>
+    <t>WolfRavn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r330717808-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1460,6 +1619,9 @@
     <t>Very friendly and helpful staff that fixes everything you need. Nice and comfortable rooms. And the breakfast was better than in many more expensive hotels: good selection of nice foods, well presented and arranged. Recommended especially for visitors to the UCLA, as it is basically at the campus. More</t>
   </si>
   <si>
+    <t>Amitabh211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r326181103-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1485,6 +1647,9 @@
   </si>
   <si>
     <t>We stayed at the UCLA guest house for 8 nights. I must say that my prime reason for choosing this hotel was because it sat right on the edge of the campus. We were going to drop my son and wanted a place near the the UCLA campus. I need not have worried as UCLA guest house came out tops in all other departments too:Rooms: we stayed in room 100. It was cozy and clean with a micro, refrigerator and coffee maker provided for.Service: Excellent...people were always ready to help you with a smile. The lady at the reception also waived off the extra bed charges when my son came to stay with us for 2 nights after the orientation.Location: unbeatable for UCLA and you are right next to Beverly Hills!!!!. Westwood village is 10 minutes away which is a great place for food and long walks.Food: Only breakfast is served which is limited but quite tasty and healthy. No provision for eggs made to order like omelette and half fried, which would have given some respite from the repetitive menu. Also the breakfast area is rather small and sometimes difficult to find a seating place. Coffee and hot chocolate is available 24/7 Overall a great experience. Will definitely be staying here whenever I visit LA again..More</t>
+  </si>
+  <si>
+    <t>Rania230</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r315660180-UCLA_Guest_House-Los_Angeles_California.html</t>
@@ -1517,6 +1682,9 @@
 I had a nice friendly accommodation at a stressful time of taking my 17years daughter halfway across the world to study at UCLA, the overwhelming experience and the inevitable separation from my eldest child.  The lovely staff promised to look over her...The UCLA guest house is a convenient hotel to stay when you are a parent of a UCLA student as it is walking distance to the university administration, colleges and the dorms.  I took my daughter there early September and stayed at the hotel for a total of 12 nights split in two visits.  The friendly atmosphere and extremely helpful and welcoming front desk staff made it possible to maintain and extend my stay the two times with smiles and consideration to my special situation, which made me feel special and part of a family away from home. They all went the extra mile to accommodate my needs and extensions even though they were mostly fully booked during this busy month at camps.The single room is quite cozy, adequate size, clean and comfortable. The two beds room is as nice. However, I would recommend a kettle and micro fridge in the rooms.The breakfast buffet is adequate with various choices of healthy and nutritious food, along with the convenient complementary hot beverage 24/7 counter of selection of teas, coffee and hot chocolate. I would recommend though adding more chairs and access to the outdoors seating for breakfast.I had a nice friendly accommodation at a stressful time of taking my 17years daughter halfway across the world to study at UCLA, the overwhelming experience and the inevitable separation from my eldest child.  The lovely staff promised to look over her and invited her to visit and use the lounge to study which made me comfortable that she can see a friendly face when I travelled home.It was a lovely experience despite my situation.  I would highly recommend the UCLA guest house to anyone who has a business to attend to or when dropping children to study there.  Most pleasant and most convenient with access to various leisure venues close by as well.More</t>
   </si>
   <si>
+    <t>GoWolf7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r306477908-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1544,6 +1712,9 @@
     <t>This hotel is ideal for collaborations or business in the UCLA campus area, since it is in walking distance from many points of interest in the campus. This is very convenient if you don't have a car, I came from the airport with a shuttle ($17) and left with an Uber. The rooms are the right size, with comfortable beds and pillows. The breakfast is varied and good, with meats, cheeses, fruits..etc. They could use more tables in the breakfast area and it would be very nice if they could arrange outside seating, since there is a patio right there that seems unused. The reception is very receptive to requests. My only issue was with a vague musty smell in my room, probably coming from the older furniture. The hotel seems older and I did not notice upgrades. There are two rooms right next to the elevator that you might want to avoid, if possible, due to the air conditioning unit (for the whole floor) being next to them. These are also facing the street/hotel entrance where people may hang around and chat (probably it doesn't happen often).More</t>
   </si>
   <si>
+    <t>Aj M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r286518880-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1571,6 +1742,9 @@
     <t>Close to Beverly Hills at an affordable price is this jewel of a hotel with great customer service.  They especially cater to those who are using the hospital in Westwood.  The front desk staff want you to enjoy the area and work hard to provide lots of tips and info.More</t>
   </si>
   <si>
+    <t>lyfliyfhv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r274698621-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1598,6 +1772,9 @@
     <t>The UCLA Guesthouse is right on the northeast edge of campus. The rooms are generously sized, though they can be kind of dark. Perhaps that's a response to the endless California sun. We've stayed there twice now, both times for business on campus. It is very convenient for that, and makes for a very comfortable sty. Breakfast offers a very wide choice, with lots of fruit and good bread and bagel choices. Breakfast is served in the lobby, and can get busy if you come at the peak time. Other than that, the guesthouse offers a very classy service. It is a 20 minute walk down to Westwood for serious eating options, though there are UCLA catering options very close if you don't care for that.More</t>
   </si>
   <si>
+    <t>C H L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r267428999-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1625,6 +1802,9 @@
     <t>Excellent friendly and efficient staff.  Rooms comfortable and clean.  Access to UCLA transportation is but only 100 ft away.  Breakfast buffet is the tops- Fresh and plentifulIf you can qualify and need a great place to stay, the UCLA Guest House is above the rest within the neighborhood.  I know I will.More</t>
   </si>
   <si>
+    <t>JonnyDub</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r251849343-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1652,6 +1832,9 @@
     <t>Given the difficulty of finding anything decent for under $200 in that area, the Guest House is a gem. Even the regular chains are bad or very expensive. Guest House rooms are clean, and sufficient. The breakfast is very good for that level of hotel. Parking is safe. It's where I stay when in that area of the West end. Some level of affiliation with the UC system is required, although doesn't seem to be strictly confirmed.More</t>
   </si>
   <si>
+    <t>serendipity613</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r250818553-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1679,6 +1862,9 @@
     <t>I'm a UCLA alum and stay at the UCLA Guest House whenever I'm back on campus for business.  I've stayed there about four times in the last few years. For those familiar with the area, it's right behind the public policy building/LuValle commons, and I love being able to walk out the door and be right on campus in seconds.  The rooms are small, but comfortable, and there's a lovely big sitting area behind the lobby where you can get free breakfast, coffee/tea anytime, and relax or do work if you like.  Breakfast is a fantastic spread -- all cold items, but including lunch meat if you want your proteins. If you're not planning to drive (I don't), just be aware that it's about a 20 minute walk to Westwood Village, though you can also walk a few minutes to take the campus bus, or a few blocks to the Hilgard Terminal (where many buses end/start their routes).  You can also pretty much get anything you need at one of the campus stores as well, and there are ample campus restaurants (including the Wolfgang Pucks in Ackerman).There are no hotel taxes or other fees, so (unlike other hotels) the amazing sticker price you see listed is actually what you pay in the end.More</t>
   </si>
   <si>
+    <t>CenaBlock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r250508150-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1700,6 +1886,9 @@
     <t>We had a great room and stay while our son was looking at UCLA. USC was a 20 minute car ride and it was the perfect spot to use as a hub. Plentiful, interesting breakfast items. Cold meat and cheese, lots of carb options, cereals and more. Room was small for three (needed a cot for my son) but we made it work. Nice and clean. Very friendly, helpful staff.More</t>
   </si>
   <si>
+    <t>TokyoVisitor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r240217873-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1727,6 +1916,9 @@
     <t>Nobody accuses the UCLA guest House of being luxurious.  The property has exceedingly modest ambitions and for the most part achieves them.  The goal is to offer the comfort and most of the amenities of a midrange motel chain but on the UCLA campus.  My room (on the 3rd floor) was serviceable, if noisy.  The bed was comfortable enough and the shower worked well.  The hall had an unpleasant smell and the bedspread did not appear to have been washed or cleaned recently, but neither is terribly unusual.  If I were paying my own way, I would stay somewhere else, but since the University was picking up my tab, the guest house was a good value.More</t>
   </si>
   <si>
+    <t>ViajeroESQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r236126639-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1754,6 +1946,9 @@
     <t>For second time this was the best deal we got near Westwood.  It has an "inn-ish" feeling to it.  The staff is nice.  If you are lucky you get complimentary parking.  If not you have to park about 300 yards away and pay for the night and then wake up real early to make sure you do not get a UCLA ticket.  It is quiet by night and during the day you see the students and staffers go their way in this large urban university.  They have courtesy internet and a fairly good continental breakfast and day round coffee and tea as a compliment.  The rooms are rather small and not really soundproof, yet they are clean and adequate.  I would stay here again if the price is right.More</t>
   </si>
   <si>
+    <t>Wilfrid A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r234739240-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1784,6 +1979,9 @@
     <t>Being in UCLA guest house is a great experience. Not only is it close to the facilities, but the guest house is also cozy and commodious. Being in the guest house definitely help me to be more motivated in order to be a Bruin.More</t>
   </si>
   <si>
+    <t>epi007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r215451709-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1808,6 +2006,9 @@
     <t>We stayed at the Guest House this past June for a conference going on at UCLA. I was immediately impressed by the great decor in the Guest House, it's layout, and location on campus. My room was very comfortable, included all useful amenities, and had a cozy bed. It was also quiet for great sleeping! The breakfast in the morning was hands down awesome! Each day there were great cheeses, meats, salmon, pastries, and a espresso machine where one could make their own coffee drink. The staff were great and very helpful. Finally, it's location on campus allowed for easy access to anyplace on campus, and was the starting point for scenic runs in the morning. Even if I wasn't at UCLA for any reason, I would still love staying at the Guest House again for a trip to the LA area.More</t>
   </si>
   <si>
+    <t>kimporterfield</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r214157757-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1826,6 +2027,9 @@
     <t>Beautiful updated rooms right on the edge of campus on Hilgard.  Comfy bed, a fabulous hairdryer, great shampoo/conditioner too. I will not bother packing those items on future trips.  Granite countertops and new furnishings.  Some rooms have microwaves and refrigerators.  This trip I saw that there is actually a pay washer and dryer available for use too with vending size detergent etc. Continental breakfast served from 6:30 am to 9:30 am daily.  Coffee, teas, and hot cocoa available 24 hours a day.  Close to the sorority houses and to Sunset Blvd. and easy parking.  Easy access to Beverly Hills, Westwood, Bel Air and Hollywood.More</t>
   </si>
   <si>
+    <t>toddinparis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r207184084-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1853,6 +2057,9 @@
     <t>UCLA runs this guest house, so I never expected something so quaint and serene.  The staff was amazingly nice, and the rooms were comfortable.  Well, except for the beds which were rock hard and not very relaxing.  The free breakfast was one of the best I have seen outside of Europe, so good job!  The breakfast room needs more seating to accommodate all the people who are eating there.  Also, there isn't enough parking for all the guests, and there is a bit of complicated business to get a parking permit for another campus lot… very confusing.  Overall, I was very pleased for the price paid.More</t>
   </si>
   <si>
+    <t>CaPalm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r203717008-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1869,6 +2076,9 @@
   </si>
   <si>
     <t>Especially in the Big City LA market this is an excellent value. We were in LA for an on-campus wedding so it was exceptionally convenient. Very friendly staff... If you're lucky and on a space available basis even parking is free. Kudos all around.More</t>
+  </si>
+  <si>
+    <t>JLC&amp;N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r201488689-UCLA_Guest_House-Los_Angeles_California.html</t>
@@ -1896,6 +2106,9 @@
 Breakfast was continental in nature...This place is unique in that it's not really a hotel, but rather a guest house.  However, I've stayed at 5 star hotels and was never treated as well there as I was by the staff here.  From the moment we checked in (early, as our room was ready), to the moment we left, every single employee said hello, asked us how we were doing and seemed genuinely happy to work there.  When we arrived, the housekeeping staff had just finished scrubbing the parking garage floor!  It was clean and fresh.  The rest of the hotel was equally clean and fresh. The housekeeping staff obviously takes a lot of pride in what they do.  The front desk staff was busy but acknowledged us and was courteous and professional, despite having multiple phones ringing and people pulling their attention in multiple directions.   The room was not large but was clean, fresh and well appointed.  The beds, pillows and linens were very comfortable and the room was quiet, despite the hotel being full and the location being in a busy traffic area.  The grounds are well planted and very nice.  A good aesthetic to the building, main areas and grounds.  All the walls are lined with historic photos of UCLA and the Westwood area. The only small issue w had was that the trash truck came early and was loud, but we had to wake up anyway.  Breakfast was continental in nature and had a mix of things from fruit and breads to prosciutto, pickles and hard boiled eggs.  Assorted juices, coffee, etc.  All seemed fresh.  Won't do for big eaters, but is a find way to get a nice start to the day.  Breakfast area is bright and pleasant.  If you want more to eat, there is a student commons just across the street with a grill, deli, barista, etc. as well as a small convenience store.If you're visiting UCLA this is the best place to stay.  It was a quiet, cool spot to return to, after walking all over a hot, busy, crowded campus.   As we were leaving early the next morning, the housekeeping staff was arriving for their work day.  As we pulled out of the (clean) garage, they were gathering there for stretching and light calisthenics so they could take on their tasks for the day.  No wonder they do such a good job!  My hat's off to this well run establishment.More</t>
   </si>
   <si>
+    <t>MizzouLizard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r200817617-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1914,6 +2127,9 @@
     <t>This hotel is for those with business at UCLA. It is walking distance to most of campus so you can leave your car in the guesthouse parking.  The breakfast was mostly breads of different kinds and some fruit, and there was not much seating so that was just ok. The rooms are small with old style bathrooms, but it was functional and clean. Basically, if you want amenities look elsewhere, but if you want to be on campus it is very convenient. More</t>
   </si>
   <si>
+    <t>LinGal2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r187924109-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1933,6 +2149,9 @@
   </si>
   <si>
     <t>This is perfect  for a short stay. Comfortable, clean and quiet. I liked it as a place to attend a play my daughter was in. The rate is reasonable and there is coffee and tea available all the time. Be prepared to have dinner out and scope out places to drive to. Not much in walking distance on a weekend. The bed was comfortable and it was plenty of room for me. I met up with a friend in their common area and we were very comfortable the area near the fireplace. The staff was friendly and helpful. I'd choose this place over the hotels I have stayed in near campus if there is space available.More</t>
+  </si>
+  <si>
+    <t>stormrunner</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r185161680-UCLA_Guest_House-Los_Angeles_California.html</t>
@@ -1979,6 +2198,9 @@
     <t>Not bad if you need to be near UCLA.  However, this is not a full service hotel.  The front desk is understaffed but the staff is nice.  There is no charge for internet and there is a small business center.  Complimentary breakfast is fine, but the plates are tiny so you have to serve yourself a few times if you want to be full. There is also very limited seating so if you are more than two people you are likely to end up seating with strangers.  Luckily the strangers are generally very nice people.  By the end of the breakfast service the staff of the hotel takes all the food that's left and eats it in front of the guests.  That I found strange.  Service is a bit slow overall and the rooms are very small.  Dont' expect hotel amenities.  Complimentary parking is rather limited.  There is no bell service and the place smells like institutional disinfectant.  Still it is convenient if you are staying only a couple nights and want to be at UCLA.  The staffers start talking early in the morning in the middle of the hall.  For every one who is working there are two just looking around.  That felt strange.More</t>
   </si>
   <si>
+    <t>misanthropicdreamer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r166778892-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2015,6 +2237,9 @@
     <t>I have stayed here twice and love it!  Beautiful room with microwave and fridge. Excellent free breakfast. Great staff. Close to everything and nestled next to a beautiful neighborhood. I will always choose this place when I visit the area</t>
   </si>
   <si>
+    <t>Sharon J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r160493580-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2033,6 +2258,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>RamDubai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r142105576-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2054,6 +2282,9 @@
     <t>Great place to stay when you visit campus as a parent .Cosy and comfortable .  Well maintained rooms and  extremely efficient and cheerful  front desk and very helpful Manager . Great breakfast spread and 24 hour hot coffee . No restaurant and therefore lunch/dinner has to be planned 30 minutes earlier by ordering on phone a takeaway burger/pizza or visiting any of the Westwood restaurants  or even the Ackerman building which has a food outlet till around 9pm except Sunday  for  by well connected campus buses or even a comfortable 20 min walk. Situated on a vast and beautiful campus. As a family,best to reach there direct by taxi/shuttle (usd 50)  from the airport than take a FLYAWAY bus (USD 10 per head ) an a cab (further US 7-10)from there .It is located on the edge of the campus and may seem isolated in a lush green forest atmosphere but is quite well connected .Local transport can be by hiring a ca which is easily organised thru front desk, connecting thru a campus bus or by taking Metro buses  just close by which can take you straight thru Hollywood , Sunset Blvd etc .More</t>
   </si>
   <si>
+    <t>travelfamily99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r139410534-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2072,6 +2303,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>mvburke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r139380195-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2084,6 +2318,9 @@
     <t>There is a nice cold breakfast but that is all the food here.  Bring your own teabags because there are only flavored teas at breakfast. You are not near any restaurants although Westwood restaurants will deliver to the hotel.  One vending machine has cookies &amp; chips.  The soda machine was broken.  The free campus shuttle stops here but does not run on weekends.  The beds are comfortable and the decorations were nice.</t>
   </si>
   <si>
+    <t>Allison J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r127313228-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2103,6 +2340,9 @@
   </si>
   <si>
     <t>Don't let the "guesthouse" fool you - this is a proper hotel with wonderful staff, clean rooms, great windows and accents, and a lovely lobby and seating area with couches and a fireplace! I spent a few nights lounging near the fire, reading a book. This area also doubles as the breakfast serving area during the mornings - they have a great spread with cheeses, cereals, fruit, bagels, pastries, coffee, juices and teas. The coffee/tea area is self-serve and stocked all day and night, so you can grab an herbal tea with hot water at bedtime! The office boasts a work table, and a few public computers with printing capabilities. From what I heard through my other colleagues, mine was the best hotel in the UCLA vicinity. The location on campus makes access so easy, and the spot is right near the statue garden, a peaceful outdoor space to relax. I stayed in a regular room, without the kitchenette space, so can't comment on those amenities, but that sounds very attractive for a longer stay. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>LGF90</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r127222579-UCLA_Guest_House-Los_Angeles_California.html</t>
@@ -2136,6 +2376,9 @@
 Much better than I...I stayed here for a week in april for business on campus. I was VERY pleasantly surprised! I had prettylow expectations, and was a little worried upon arrival to the slightly tired and worn lobby and hallways. But the rooms are more modern than the outside, don't be scared off by the outside! The bed is surprisingly really comfy and the room was very dark and relatively quiet at night so slept very well. All the good channels on the tv. Bathroom has aged but all very clean, decent towels which are replaced daily if you'd like. Perfect location, right near bus terminal to downtown/ hollywood, (both met buses), and Santa Monica (big blue buses). Also the UCLA campus bus stops right outside. Staff at reception 24 hours and were always happy to answer questions, even show me the vending machine upstairs which i couldn't find upstairs on my own! They even gave me a list of nearby restaurants which deliver to the hotel which was great when arriving back at the hotel after a long day and wanting to order a pizza.Breakfast was simple but again, much better thani expected. Bagels, toast, meats, cheeses, muffins &amp; pastires + coffee/tea/juice. WIFI is also unbeatable, no password required - works well on phone and lap top (including skype video streaming).DEFINITELY recommend it if you need to visit campus to visit children/look at the college/for business! Much better than I ever imagined!More</t>
   </si>
   <si>
+    <t>Olena S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r120310995-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2152,6 +2395,9 @@
   </si>
   <si>
     <t>November 2011</t>
+  </si>
+  <si>
+    <t>nellie1919</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r105188374-UCLA_Guest_House-Los_Angeles_California.html</t>
@@ -2177,6 +2423,9 @@
 Now for the cons: Desk service is spotty. Although my roommate and I had booked a room with two beds months in advance for our conference, we received a room with only one bed. Fortunately, my roommie and I are good friends, otherwise sharing a bed for 5-nights with a semi-stranger would have definitely been a problem. I learned from other conference attendees that the desk also made other gaffes (no rollaway as requested, etc.). I also found that they sometimes give out incomplete information. For instance, connecting to the wi-fi is a bit complicated and requires registration first in the office center, but the woman who checked me in told...The UCLA Guest House fits the bill for those with business on the UCLA campus -- especially suited for poor academics on a budget. During a recent 5-day conference on the UCLA campus, the Guest House was definitely home away from home. The rooms are simple but impeccably clean and comfortable enough. The bath amenities are eco-friendly, which is a nice touch for a campus entity. At ~$148 per night (including taxes), just steps away from my conference's meeting buildings, free wi-fi, free computer access and printing in the business center, and an EXCELLENT breakfast buffet, the Guest House is definitely the best value in Westwood and for anyone visiting UCLA's campus. An added bonus is the common area, which is complete with fireplace and free-flowing coffee and tea.Now for the cons: Desk service is spotty. Although my roommate and I had booked a room with two beds months in advance for our conference, we received a room with only one bed. Fortunately, my roommie and I are good friends, otherwise sharing a bed for 5-nights with a semi-stranger would have definitely been a problem. I learned from other conference attendees that the desk also made other gaffes (no rollaway as requested, etc.). I also found that they sometimes give out incomplete information. For instance, connecting to the wi-fi is a bit complicated and requires registration first in the office center, but the woman who checked me in told me that it was "easy" and all I had to do was login from my own laptop in my room. Not so! Even knowing what to expect service-wise, I will definitely stay at the UCLA Guest House again.More</t>
   </si>
   <si>
+    <t>chikina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r99122763-UCLA_Guest_House-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2196,6 +2445,9 @@
   </si>
   <si>
     <t>We stayed here for two nights during the weekend while visiting our son at UCLA. Upon check in there was a confusion with the room assignment, but they corrected it pretty quickly, just the service, probably provided by the student, wasn't too friendly. Our room was on the third floor. Furniture was very standard. Bed was uncomfortable. Mattresses covered with some plastic or liquid resistant fabric. Bathroom reminded the one in motel 6, with extremely bright lights, very small sink, water not hot enough, no fan, towels worn out grey color. Things we like: windows could be open for fresh air; nice flat screen tv, free wi-fi; good breakfast with real espresso machine; nice fire place in the lobby, perfect location for UCLA visit, no problem with parking. The price for this room was $143 (no tax or additional fees)More</t>
+  </si>
+  <si>
+    <t>MadameBoden</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1963681-r89599241-UCLA_Guest_House-Los_Angeles_California.html</t>
@@ -2721,43 +2973,47 @@
       <c r="A2" t="n">
         <v>47693</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2769,56 +3025,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>47693</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2830,56 +3090,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>47693</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2901,56 +3165,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>47693</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2968,56 +3236,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>47693</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -3039,56 +3311,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>47693</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3100,56 +3376,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>47693</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3171,56 +3451,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>47693</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3238,56 +3522,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>47693</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3305,56 +3593,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>47693</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3376,56 +3668,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>47693</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3441,56 +3737,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>47693</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3506,56 +3806,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>47693</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3577,56 +3881,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>47693</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3648,56 +3956,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>47693</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3719,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>47693</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3790,56 +4106,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>47693</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>185</v>
       </c>
-      <c r="J18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" t="s">
-        <v>186</v>
-      </c>
-      <c r="L18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>171</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3861,56 +4181,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>47693</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3932,56 +4256,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>47693</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4003,56 +4331,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>47693</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4074,56 +4406,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>47693</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4141,56 +4477,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>47693</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4202,56 +4542,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>47693</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4273,56 +4617,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>47693</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4344,56 +4692,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>47693</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4415,56 +4767,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>47693</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4486,56 +4842,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>47693</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>284</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4557,56 +4917,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="X28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>47693</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4628,56 +4992,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="X29" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>47693</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4695,56 +5063,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="X30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>47693</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>313</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4766,56 +5138,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="X31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>47693</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>322</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4837,56 +5213,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="X32" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="Y32" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>47693</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4898,56 +5278,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>47693</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="L34" t="s">
+        <v>341</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>309</v>
       </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>281</v>
-      </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4969,56 +5353,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>47693</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5040,56 +5428,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>47693</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5101,56 +5493,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>47693</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>364</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5168,56 +5564,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>47693</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>371</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="K38" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="L38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5239,56 +5639,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="X38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>47693</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>381</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O39" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5306,56 +5710,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="X39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="Y39" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>47693</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>391</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5377,56 +5785,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y40" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>47693</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5448,56 +5860,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="X41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>47693</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>409</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5509,56 +5925,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="X42" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="Y42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>47693</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>418</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5580,56 +6000,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="X43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="Y43" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>47693</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>428</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5651,56 +6075,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X44" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="Y44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>47693</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>437</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="K45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="L45" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="O45" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5718,56 +6146,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="Y45" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>47693</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>444</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="J46" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="K46" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="L46" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5783,56 +6215,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="X46" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y46" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>47693</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>454</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5850,56 +6286,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="X47" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y47" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47693</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>462</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="J48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="K48" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="L48" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5921,56 +6361,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="X48" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y48" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>47693</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>469</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="J49" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="K49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5992,56 +6436,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="X49" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="Y49" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>47693</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>476</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="J50" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="K50" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="L50" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6057,56 +6505,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="X50" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="Y50" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>47693</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>485</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="J51" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="K51" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="L51" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6122,56 +6574,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="X51" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>47693</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>495</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="J52" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="O52" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6189,56 +6645,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="X52" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="Y52" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>47693</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>505</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="J53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="K53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="L53" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6256,56 +6716,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X53" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y53" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>47693</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>515</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="J54" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="K54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="L54" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6321,47 +6785,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="X54" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="Y54" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>47693</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>524</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="J55" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="K55" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="L55" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -6378,56 +6846,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="X55" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="Y55" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>47693</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>531</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="J56" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="K56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="L56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6443,56 +6915,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="X56" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="Y56" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>47693</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>541</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="J57" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="K57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="L57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6510,56 +6986,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="X57" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="Y57" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>47693</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>550</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="J58" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="K58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="L58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="O58" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6575,56 +7055,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="X58" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="Y58" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>47693</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>560</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="J59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="K59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="L59" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="O59" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6640,56 +7124,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="X59" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="Y59" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>47693</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>570</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="J60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="K60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="L60" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="O60" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6705,56 +7193,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="X60" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="Y60" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>47693</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>580</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="J61" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="K61" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="L61" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="O61" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6770,56 +7262,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="X61" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="Y61" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>47693</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>590</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="J62" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="K62" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="L62" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="O62" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6837,56 +7333,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="X62" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="Y62" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>47693</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>600</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="J63" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="K63" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="L63" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="O63" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6904,56 +7404,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="X63" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="Y63" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>47693</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>610</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="J64" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="K64" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="L64" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6969,56 +7473,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="X64" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="Y64" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>47693</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>618</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="J65" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="K65" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="L65" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="O65" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7030,56 +7538,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="X65" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="Y65" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>47693</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>628</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="J66" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="K66" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="L66" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="O66" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7095,56 +7607,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="X66" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="Y66" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>47693</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>638</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="J67" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="K67" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="L67" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="O67" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7156,56 +7672,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="X67" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="Y67" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>47693</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>649</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="J68" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="K68" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="L68" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="O68" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7223,56 +7743,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="X68" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="Y68" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>47693</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>658</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="J69" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="K69" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="L69" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="O69" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7288,56 +7812,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="X69" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="Y69" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>47693</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>665</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="J70" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="K70" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="L70" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="O70" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7359,47 +7887,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="X70" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="Y70" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>47693</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>675</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="J71" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="K71" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="L71" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7426,56 +7958,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="X71" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="Y71" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>47693</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>682</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="J72" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="K72" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="L72" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="O72" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7497,56 +8033,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="X72" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="Y72" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>47693</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>690</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="J73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="K73" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="L73" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7558,56 +8098,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="X73" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="Y73" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>47693</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>697</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="J74" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="K74" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="L74" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7631,50 +8175,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>47693</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>705</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="J75" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="K75" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="L75" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="O75" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7698,50 +8246,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>47693</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>628</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="J76" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
       <c r="K76" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="L76" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7765,50 +8317,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>47693</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>720</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="J77" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="K77" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
       <c r="L77" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7832,41 +8388,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>47693</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>658</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>655</v>
+        <v>729</v>
       </c>
       <c r="J78" t="s">
-        <v>656</v>
+        <v>730</v>
       </c>
       <c r="K78" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="L78" t="s">
-        <v>658</v>
+        <v>732</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -7895,50 +8455,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>658</v>
+        <v>732</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>47693</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>733</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="J79" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="K79" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
       <c r="L79" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="O79" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7962,50 +8526,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>47693</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>740</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="J80" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="K80" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="L80" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8029,50 +8597,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>47693</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>748</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="J81" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="K81" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="L81" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8096,50 +8668,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>47693</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>755</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="J82" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="K82" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="L82" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="O82" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8163,50 +8739,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>47693</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>760</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="J83" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="K83" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="L83" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="O83" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8230,50 +8810,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>47693</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>768</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="J84" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="K84" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="L84" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="O84" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8297,50 +8881,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>47693</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>776</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="J85" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="K85" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="L85" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="O85" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8364,50 +8952,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>47693</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>783</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="J86" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="K86" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="L86" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="O86" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8431,50 +9023,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>47693</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>791</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="J87" t="s">
-        <v>711</v>
+        <v>794</v>
       </c>
       <c r="K87" t="s">
-        <v>712</v>
+        <v>795</v>
       </c>
       <c r="L87" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8498,50 +9094,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>47693</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>799</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>717</v>
+        <v>801</v>
       </c>
       <c r="J88" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
       <c r="K88" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="L88" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="O88" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8565,7 +9165,7 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
